--- a/data/Class 7 - Examination Results.xlsx
+++ b/data/Class 7 - Examination Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Report-Card\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Report-Card\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D2ACF8-4D90-4B19-A116-208BBB09C9F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A991BD46-3CA6-47E1-A088-841BE39419CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4725" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="216">
   <si>
     <t>Student Details</t>
   </si>
@@ -498,9 +498,6 @@
     <t>Shradha Nainwal</t>
   </si>
   <si>
-    <t>Manish Nianwal</t>
-  </si>
-  <si>
     <t>Meena Devi</t>
   </si>
   <si>
@@ -676,6 +673,12 @@
   </si>
   <si>
     <t>03-07-2008</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Manish Nainwal</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -898,43 +901,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -949,7 +928,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,6 +978,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82D6EBC-AEEA-42F9-9B15-F70AB8885360}">
   <dimension ref="A1:BA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1229,7 +1232,7 @@
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1273,290 +1276,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="15"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="12"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="18" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="19" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="18" t="s">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="19" t="s">
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="22" t="s">
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="23" t="s">
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="20"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="15"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="27" t="s">
+      <c r="T3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="27" t="s">
+      <c r="V3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="27" t="s">
+      <c r="W3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="27" t="s">
+      <c r="X3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" s="27" t="s">
+      <c r="Y3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" s="28" t="s">
+      <c r="Z3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="28" t="s">
+      <c r="AB3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="28" t="s">
+      <c r="AC3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AD3" s="28" t="s">
+      <c r="AD3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AE3" s="28" t="s">
+      <c r="AE3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AF3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG3" s="28" t="s">
+      <c r="AF3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AH3" s="29" t="s">
+      <c r="AH3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="30" t="s">
+      <c r="AI3" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ3" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="AJ3" s="30" t="s">
+      <c r="AK3" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="AK3" s="30" t="s">
+      <c r="AL3" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="AL3" s="30" t="s">
+      <c r="AM3" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="AM3" s="30" t="s">
+      <c r="AN3" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="AN3" s="30" t="s">
+      <c r="AO3" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP3" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ3" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR3" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS3" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT3" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU3" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV3" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW3" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX3" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="AY3" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ3" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA3" s="20" t="s">
         <v>194</v>
-      </c>
-      <c r="AO3" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP3" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ3" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR3" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="AS3" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="AT3" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU3" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV3" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="AW3" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="AX3" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="AY3" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ3" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="BA3" s="28" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
@@ -1638,105 +1641,105 @@
       <c r="Z4" s="8">
         <v>19</v>
       </c>
-      <c r="AA4" s="37">
+      <c r="AA4" s="29">
         <v>54</v>
       </c>
-      <c r="AB4" s="37">
+      <c r="AB4" s="29">
         <v>53</v>
       </c>
-      <c r="AC4" s="38">
+      <c r="AC4" s="30">
         <v>50</v>
       </c>
-      <c r="AD4" s="38">
+      <c r="AD4" s="30">
         <v>47</v>
       </c>
-      <c r="AE4" s="38">
+      <c r="AE4" s="30">
         <v>66</v>
       </c>
-      <c r="AF4" s="39">
+      <c r="AF4" s="31">
         <v>53</v>
       </c>
-      <c r="AG4" s="33">
+      <c r="AG4" s="25">
         <f t="shared" ref="AG4:AG51" si="0">SUM(I4:AF4)</f>
         <v>885</v>
       </c>
-      <c r="AH4" s="33">
+      <c r="AH4" s="25">
         <f>ROUND((AG4/1200*100),1)</f>
         <v>73.8</v>
       </c>
-      <c r="AI4" s="34">
+      <c r="AI4" s="26">
         <f>(IF(I4="NA",0,IF(I4="Ab",0,I4)))+(IF(O4="NA",0,IF(O4="Ab",0,O4)))+(IF(U4="NA",0,IF(U4="Ab",0,U4)))+(IF(AA4="NA",0,IF(AA4="Ab",0,AA4)))</f>
         <v>152</v>
       </c>
-      <c r="AJ4" s="34">
+      <c r="AJ4" s="26">
         <f t="shared" ref="AJ4:AN4" si="1">(IF(J4="NA",0,IF(J4="Ab",0,J4)))+(IF(P4="NA",0,IF(P4="Ab",0,P4)))+(IF(V4="NA",0,IF(V4="Ab",0,V4)))+(IF(AB4="NA",0,IF(AB4="Ab",0,AB4)))</f>
         <v>126</v>
       </c>
-      <c r="AK4" s="34">
+      <c r="AK4" s="26">
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="AL4" s="34">
+      <c r="AL4" s="26">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="AM4" s="34">
+      <c r="AM4" s="26">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="AN4" s="34">
+      <c r="AN4" s="26">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="AO4" s="34">
+      <c r="AO4" s="26">
         <f>ROUND(AI4/200*100,1)</f>
         <v>76</v>
       </c>
-      <c r="AP4" s="34">
+      <c r="AP4" s="26">
         <f t="shared" ref="AP4:AT4" si="2">ROUND(AJ4/200*100,1)</f>
         <v>63</v>
       </c>
-      <c r="AQ4" s="34">
+      <c r="AQ4" s="26">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="AR4" s="34">
+      <c r="AR4" s="26">
         <f t="shared" si="2"/>
         <v>74.5</v>
       </c>
-      <c r="AS4" s="34">
+      <c r="AS4" s="26">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="AT4" s="34">
+      <c r="AT4" s="26">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="AU4" s="35" t="str">
+      <c r="AU4" s="27" t="str">
         <f>IF(AO4&gt;90,"A1",IF(AO4&gt;80,"A2",IF(AO4&gt;70,"B1",IF(AO4&gt;60,"B2",IF(AO4&gt;50,"C1",IF(AO4&gt;40,"C2",IF(AO4&gt;32,"D","E")))))))</f>
         <v>B1</v>
       </c>
-      <c r="AV4" s="35" t="str">
+      <c r="AV4" s="27" t="str">
         <f t="shared" ref="AV4:AZ4" si="3">IF(AP4&gt;90,"A1",IF(AP4&gt;80,"A2",IF(AP4&gt;70,"B1",IF(AP4&gt;60,"B2",IF(AP4&gt;50,"C1",IF(AP4&gt;40,"C2",IF(AP4&gt;32,"D","E")))))))</f>
         <v>B2</v>
       </c>
-      <c r="AW4" s="35" t="str">
+      <c r="AW4" s="27" t="str">
         <f t="shared" si="3"/>
         <v>B1</v>
       </c>
-      <c r="AX4" s="35" t="str">
+      <c r="AX4" s="27" t="str">
         <f t="shared" si="3"/>
         <v>B1</v>
       </c>
-      <c r="AY4" s="35" t="str">
+      <c r="AY4" s="27" t="str">
         <f t="shared" si="3"/>
         <v>A2</v>
       </c>
-      <c r="AZ4" s="35" t="str">
+      <c r="AZ4" s="27" t="str">
         <f t="shared" si="3"/>
         <v>B1</v>
       </c>
-      <c r="BA4" s="36">
+      <c r="BA4" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -1763,7 +1766,7 @@
         <v>7895709709</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I5" s="7">
         <v>20</v>
@@ -1778,7 +1781,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7">
         <v>18</v>
@@ -1819,105 +1822,105 @@
       <c r="Z5" s="8">
         <v>18</v>
       </c>
-      <c r="AA5" s="40">
+      <c r="AA5" s="32">
         <v>39</v>
       </c>
-      <c r="AB5" s="40">
+      <c r="AB5" s="32">
         <v>21</v>
       </c>
-      <c r="AC5" s="41">
+      <c r="AC5" s="33">
         <v>34</v>
       </c>
-      <c r="AD5" s="41">
+      <c r="AD5" s="33">
         <v>39</v>
       </c>
-      <c r="AE5" s="41">
+      <c r="AE5" s="33">
         <v>65</v>
       </c>
       <c r="AF5" s="5">
         <v>20</v>
       </c>
-      <c r="AG5" s="33">
+      <c r="AG5" s="25">
         <f t="shared" si="0"/>
-        <v>796</v>
-      </c>
-      <c r="AH5" s="33">
+        <v>786</v>
+      </c>
+      <c r="AH5" s="25">
         <f t="shared" ref="AH5:AH51" si="4">ROUND((AG5/1200*100),1)</f>
-        <v>66.3</v>
-      </c>
-      <c r="AI5" s="34">
+        <v>65.5</v>
+      </c>
+      <c r="AI5" s="26">
         <f t="shared" ref="AI5:AI40" si="5">(IF(I5="NA",0,IF(I5="Ab",0,I5)))+(IF(O5="NA",0,IF(O5="Ab",0,O5)))+(IF(U5="NA",0,IF(U5="Ab",0,U5)))+(IF(AA5="NA",0,IF(AA5="Ab",0,AA5)))</f>
         <v>131</v>
       </c>
-      <c r="AJ5" s="34">
+      <c r="AJ5" s="26">
         <f t="shared" ref="AJ5:AJ41" si="6">(IF(J5="NA",0,IF(J5="Ab",0,J5)))+(IF(P5="NA",0,IF(P5="Ab",0,P5)))+(IF(V5="NA",0,IF(V5="Ab",0,V5)))+(IF(AB5="NA",0,IF(AB5="Ab",0,AB5)))</f>
         <v>118</v>
       </c>
-      <c r="AK5" s="34">
+      <c r="AK5" s="26">
         <f t="shared" ref="AK5:AK41" si="7">(IF(K5="NA",0,IF(K5="Ab",0,K5)))+(IF(Q5="NA",0,IF(Q5="Ab",0,Q5)))+(IF(W5="NA",0,IF(W5="Ab",0,W5)))+(IF(AC5="NA",0,IF(AC5="Ab",0,AC5)))</f>
         <v>138</v>
       </c>
-      <c r="AL5" s="34">
+      <c r="AL5" s="26">
         <f t="shared" ref="AL5:AL41" si="8">(IF(L5="NA",0,IF(L5="Ab",0,L5)))+(IF(R5="NA",0,IF(R5="Ab",0,R5)))+(IF(X5="NA",0,IF(X5="Ab",0,X5)))+(IF(AD5="NA",0,IF(AD5="Ab",0,AD5)))</f>
         <v>138</v>
       </c>
-      <c r="AM5" s="34">
+      <c r="AM5" s="26">
         <f t="shared" ref="AM5:AM41" si="9">(IF(M5="NA",0,IF(M5="Ab",0,M5)))+(IF(S5="NA",0,IF(S5="Ab",0,S5)))+(IF(Y5="NA",0,IF(Y5="Ab",0,Y5)))+(IF(AE5="NA",0,IF(AE5="Ab",0,AE5)))</f>
-        <v>162</v>
-      </c>
-      <c r="AN5" s="34">
+        <v>152</v>
+      </c>
+      <c r="AN5" s="26">
         <f t="shared" ref="AN5:AN41" si="10">(IF(N5="NA",0,IF(N5="Ab",0,N5)))+(IF(T5="NA",0,IF(T5="Ab",0,T5)))+(IF(Z5="NA",0,IF(Z5="Ab",0,Z5)))+(IF(AF5="NA",0,IF(AF5="Ab",0,AF5)))</f>
         <v>109</v>
       </c>
-      <c r="AO5" s="34">
+      <c r="AO5" s="26">
         <f t="shared" ref="AO5:AO40" si="11">ROUND(AI5/200*100,1)</f>
         <v>65.5</v>
       </c>
-      <c r="AP5" s="34">
+      <c r="AP5" s="26">
         <f t="shared" ref="AP5:AP41" si="12">ROUND(AJ5/200*100,1)</f>
         <v>59</v>
       </c>
-      <c r="AQ5" s="34">
+      <c r="AQ5" s="26">
         <f t="shared" ref="AQ5:AQ41" si="13">ROUND(AK5/200*100,1)</f>
         <v>69</v>
       </c>
-      <c r="AR5" s="34">
+      <c r="AR5" s="26">
         <f t="shared" ref="AR5:AR41" si="14">ROUND(AL5/200*100,1)</f>
         <v>69</v>
       </c>
-      <c r="AS5" s="34">
+      <c r="AS5" s="26">
         <f t="shared" ref="AS5:AS41" si="15">ROUND(AM5/200*100,1)</f>
-        <v>81</v>
-      </c>
-      <c r="AT5" s="34">
+        <v>76</v>
+      </c>
+      <c r="AT5" s="26">
         <f t="shared" ref="AT5:AT41" si="16">ROUND(AN5/200*100,1)</f>
         <v>54.5</v>
       </c>
-      <c r="AU5" s="35" t="str">
+      <c r="AU5" s="27" t="str">
         <f t="shared" ref="AU5:AU40" si="17">IF(AO5&gt;90,"A1",IF(AO5&gt;80,"A2",IF(AO5&gt;70,"B1",IF(AO5&gt;60,"B2",IF(AO5&gt;50,"C1",IF(AO5&gt;40,"C2",IF(AO5&gt;32,"D","E")))))))</f>
         <v>B2</v>
       </c>
-      <c r="AV5" s="35" t="str">
+      <c r="AV5" s="27" t="str">
         <f t="shared" ref="AV5:AV41" si="18">IF(AP5&gt;90,"A1",IF(AP5&gt;80,"A2",IF(AP5&gt;70,"B1",IF(AP5&gt;60,"B2",IF(AP5&gt;50,"C1",IF(AP5&gt;40,"C2",IF(AP5&gt;32,"D","E")))))))</f>
         <v>C1</v>
       </c>
-      <c r="AW5" s="35" t="str">
+      <c r="AW5" s="27" t="str">
         <f t="shared" ref="AW5:AW41" si="19">IF(AQ5&gt;90,"A1",IF(AQ5&gt;80,"A2",IF(AQ5&gt;70,"B1",IF(AQ5&gt;60,"B2",IF(AQ5&gt;50,"C1",IF(AQ5&gt;40,"C2",IF(AQ5&gt;32,"D","E")))))))</f>
         <v>B2</v>
       </c>
-      <c r="AX5" s="35" t="str">
+      <c r="AX5" s="27" t="str">
         <f t="shared" ref="AX5:AX41" si="20">IF(AR5&gt;90,"A1",IF(AR5&gt;80,"A2",IF(AR5&gt;70,"B1",IF(AR5&gt;60,"B2",IF(AR5&gt;50,"C1",IF(AR5&gt;40,"C2",IF(AR5&gt;32,"D","E")))))))</f>
         <v>B2</v>
       </c>
-      <c r="AY5" s="35" t="str">
+      <c r="AY5" s="27" t="str">
         <f t="shared" ref="AY5:AY41" si="21">IF(AS5&gt;90,"A1",IF(AS5&gt;80,"A2",IF(AS5&gt;70,"B1",IF(AS5&gt;60,"B2",IF(AS5&gt;50,"C1",IF(AS5&gt;40,"C2",IF(AS5&gt;32,"D","E")))))))</f>
-        <v>A2</v>
-      </c>
-      <c r="AZ5" s="35" t="str">
+        <v>B1</v>
+      </c>
+      <c r="AZ5" s="27" t="str">
         <f t="shared" ref="AZ5:AZ41" si="22">IF(AT5&gt;90,"A1",IF(AT5&gt;80,"A2",IF(AT5&gt;70,"B1",IF(AT5&gt;60,"B2",IF(AT5&gt;50,"C1",IF(AT5&gt;40,"C2",IF(AT5&gt;32,"D","E")))))))</f>
         <v>C1</v>
       </c>
-      <c r="BA5" s="36">
+      <c r="BA5" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -1944,7 +1947,7 @@
         <v>8938823282</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
         <v>16</v>
@@ -1952,10 +1955,10 @@
       <c r="J6" s="7">
         <v>17</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="34" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="7">
@@ -2000,105 +2003,105 @@
       <c r="Z6" s="8">
         <v>18</v>
       </c>
-      <c r="AA6" s="40">
+      <c r="AA6" s="32">
         <v>28</v>
       </c>
-      <c r="AB6" s="40">
+      <c r="AB6" s="32">
         <v>14</v>
       </c>
-      <c r="AC6" s="41">
+      <c r="AC6" s="33">
         <v>25</v>
       </c>
-      <c r="AD6" s="41">
+      <c r="AD6" s="33">
         <v>40</v>
       </c>
-      <c r="AE6" s="41">
+      <c r="AE6" s="33">
         <v>53</v>
       </c>
       <c r="AF6" s="5">
         <v>23</v>
       </c>
-      <c r="AG6" s="33">
+      <c r="AG6" s="25">
         <f t="shared" si="0"/>
         <v>604</v>
       </c>
-      <c r="AH6" s="33">
+      <c r="AH6" s="25">
         <f t="shared" si="4"/>
         <v>50.3</v>
       </c>
-      <c r="AI6" s="34">
+      <c r="AI6" s="26">
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="AJ6" s="34">
+      <c r="AJ6" s="26">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="AK6" s="34">
+      <c r="AK6" s="26">
         <f t="shared" si="7"/>
         <v>101</v>
       </c>
-      <c r="AL6" s="34">
+      <c r="AL6" s="26">
         <f t="shared" si="8"/>
         <v>115</v>
       </c>
-      <c r="AM6" s="34">
+      <c r="AM6" s="26">
         <f t="shared" si="9"/>
         <v>141</v>
       </c>
-      <c r="AN6" s="34">
+      <c r="AN6" s="26">
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="AO6" s="34">
+      <c r="AO6" s="26">
         <f t="shared" si="11"/>
         <v>41.5</v>
       </c>
-      <c r="AP6" s="34">
+      <c r="AP6" s="26">
         <f t="shared" si="12"/>
         <v>35.5</v>
       </c>
-      <c r="AQ6" s="34">
+      <c r="AQ6" s="26">
         <f t="shared" si="13"/>
         <v>50.5</v>
       </c>
-      <c r="AR6" s="34">
+      <c r="AR6" s="26">
         <f t="shared" si="14"/>
         <v>57.5</v>
       </c>
-      <c r="AS6" s="34">
+      <c r="AS6" s="26">
         <f t="shared" si="15"/>
         <v>70.5</v>
       </c>
-      <c r="AT6" s="34">
+      <c r="AT6" s="26">
         <f t="shared" si="16"/>
         <v>46.5</v>
       </c>
-      <c r="AU6" s="35" t="str">
+      <c r="AU6" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C2</v>
       </c>
-      <c r="AV6" s="35" t="str">
+      <c r="AV6" s="27" t="str">
         <f t="shared" si="18"/>
         <v>D</v>
       </c>
-      <c r="AW6" s="35" t="str">
+      <c r="AW6" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="AX6" s="35" t="str">
+      <c r="AX6" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C1</v>
       </c>
-      <c r="AY6" s="35" t="str">
+      <c r="AY6" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ6" s="35" t="str">
+      <c r="AZ6" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C2</v>
       </c>
-      <c r="BA6" s="36">
+      <c r="BA6" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -2181,105 +2184,105 @@
       <c r="Z7" s="8">
         <v>19</v>
       </c>
-      <c r="AA7" s="40">
+      <c r="AA7" s="32">
         <v>40</v>
       </c>
-      <c r="AB7" s="40">
+      <c r="AB7" s="32">
         <v>51</v>
       </c>
-      <c r="AC7" s="41">
+      <c r="AC7" s="33">
         <v>45</v>
       </c>
-      <c r="AD7" s="41">
+      <c r="AD7" s="33">
         <v>61</v>
       </c>
-      <c r="AE7" s="41">
+      <c r="AE7" s="33">
         <v>68</v>
       </c>
       <c r="AF7" s="5">
         <v>50</v>
       </c>
-      <c r="AG7" s="33">
+      <c r="AG7" s="25">
         <f t="shared" si="0"/>
         <v>901</v>
       </c>
-      <c r="AH7" s="33">
+      <c r="AH7" s="25">
         <f t="shared" si="4"/>
         <v>75.099999999999994</v>
       </c>
-      <c r="AI7" s="34">
+      <c r="AI7" s="26">
         <f t="shared" si="5"/>
         <v>138</v>
       </c>
-      <c r="AJ7" s="34">
+      <c r="AJ7" s="26">
         <f t="shared" si="6"/>
         <v>138</v>
       </c>
-      <c r="AK7" s="34">
+      <c r="AK7" s="26">
         <f t="shared" si="7"/>
         <v>155</v>
       </c>
-      <c r="AL7" s="34">
+      <c r="AL7" s="26">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="AM7" s="34">
+      <c r="AM7" s="26">
         <f t="shared" si="9"/>
         <v>173</v>
       </c>
-      <c r="AN7" s="34">
+      <c r="AN7" s="26">
         <f t="shared" si="10"/>
         <v>131</v>
       </c>
-      <c r="AO7" s="34">
+      <c r="AO7" s="26">
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="AP7" s="34">
+      <c r="AP7" s="26">
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
-      <c r="AQ7" s="34">
+      <c r="AQ7" s="26">
         <f t="shared" si="13"/>
         <v>77.5</v>
       </c>
-      <c r="AR7" s="34">
+      <c r="AR7" s="26">
         <f t="shared" si="14"/>
         <v>83</v>
       </c>
-      <c r="AS7" s="34">
+      <c r="AS7" s="26">
         <f t="shared" si="15"/>
         <v>86.5</v>
       </c>
-      <c r="AT7" s="34">
+      <c r="AT7" s="26">
         <f t="shared" si="16"/>
         <v>65.5</v>
       </c>
-      <c r="AU7" s="35" t="str">
+      <c r="AU7" s="27" t="str">
         <f t="shared" si="17"/>
         <v>B2</v>
       </c>
-      <c r="AV7" s="35" t="str">
+      <c r="AV7" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B2</v>
       </c>
-      <c r="AW7" s="35" t="str">
+      <c r="AW7" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B1</v>
       </c>
-      <c r="AX7" s="35" t="str">
+      <c r="AX7" s="27" t="str">
         <f t="shared" si="20"/>
         <v>A2</v>
       </c>
-      <c r="AY7" s="35" t="str">
+      <c r="AY7" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="AZ7" s="35" t="str">
+      <c r="AZ7" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B2</v>
       </c>
-      <c r="BA7" s="36">
+      <c r="BA7" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -2308,40 +2311,40 @@
       <c r="H8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="34" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="7">
         <v>20</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="34" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7">
         <v>20</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="42" t="s">
+      <c r="R8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="42" t="s">
+      <c r="S8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="42" t="s">
+      <c r="T8" s="34" t="s">
         <v>31</v>
       </c>
       <c r="U8" s="8">
@@ -2362,105 +2365,105 @@
       <c r="Z8" s="8">
         <v>20</v>
       </c>
-      <c r="AA8" s="40">
+      <c r="AA8" s="32">
         <v>28</v>
       </c>
-      <c r="AB8" s="40">
+      <c r="AB8" s="32">
         <v>12</v>
       </c>
-      <c r="AC8" s="41">
+      <c r="AC8" s="33">
         <v>23</v>
       </c>
-      <c r="AD8" s="41">
+      <c r="AD8" s="33">
         <v>38</v>
       </c>
-      <c r="AE8" s="41">
+      <c r="AE8" s="33">
         <v>53</v>
       </c>
       <c r="AF8" s="5">
         <v>27</v>
       </c>
-      <c r="AG8" s="33">
+      <c r="AG8" s="25">
         <f t="shared" si="0"/>
         <v>341</v>
       </c>
-      <c r="AH8" s="33">
+      <c r="AH8" s="25">
         <f t="shared" si="4"/>
         <v>28.4</v>
       </c>
-      <c r="AI8" s="34">
+      <c r="AI8" s="26">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="AJ8" s="34">
+      <c r="AJ8" s="26">
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="AK8" s="34">
+      <c r="AK8" s="26">
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="AL8" s="34">
+      <c r="AL8" s="26">
         <f t="shared" si="8"/>
         <v>78</v>
       </c>
-      <c r="AM8" s="34">
+      <c r="AM8" s="26">
         <f t="shared" si="9"/>
         <v>73</v>
       </c>
-      <c r="AN8" s="34">
+      <c r="AN8" s="26">
         <f t="shared" si="10"/>
         <v>47</v>
       </c>
-      <c r="AO8" s="34">
+      <c r="AO8" s="26">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="AP8" s="34">
+      <c r="AP8" s="26">
         <f t="shared" si="12"/>
         <v>26</v>
       </c>
-      <c r="AQ8" s="34">
+      <c r="AQ8" s="26">
         <f t="shared" si="13"/>
         <v>21.5</v>
       </c>
-      <c r="AR8" s="34">
+      <c r="AR8" s="26">
         <f t="shared" si="14"/>
         <v>39</v>
       </c>
-      <c r="AS8" s="34">
+      <c r="AS8" s="26">
         <f t="shared" si="15"/>
         <v>36.5</v>
       </c>
-      <c r="AT8" s="34">
+      <c r="AT8" s="26">
         <f t="shared" si="16"/>
         <v>23.5</v>
       </c>
-      <c r="AU8" s="35" t="str">
+      <c r="AU8" s="27" t="str">
         <f t="shared" si="17"/>
         <v>E</v>
       </c>
-      <c r="AV8" s="35" t="str">
+      <c r="AV8" s="27" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
-      <c r="AW8" s="35" t="str">
+      <c r="AW8" s="27" t="str">
         <f t="shared" si="19"/>
         <v>E</v>
       </c>
-      <c r="AX8" s="35" t="str">
+      <c r="AX8" s="27" t="str">
         <f t="shared" si="20"/>
         <v>D</v>
       </c>
-      <c r="AY8" s="35" t="str">
+      <c r="AY8" s="27" t="str">
         <f t="shared" si="21"/>
         <v>D</v>
       </c>
-      <c r="AZ8" s="35" t="str">
+      <c r="AZ8" s="27" t="str">
         <f t="shared" si="22"/>
         <v>E</v>
       </c>
-      <c r="BA8" s="36">
+      <c r="BA8" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -2487,7 +2490,7 @@
         <v>9760402134</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I9" s="7">
         <v>14</v>
@@ -2543,105 +2546,105 @@
       <c r="Z9" s="8">
         <v>18</v>
       </c>
-      <c r="AA9" s="40">
+      <c r="AA9" s="32">
         <v>46</v>
       </c>
-      <c r="AB9" s="40">
+      <c r="AB9" s="32">
         <v>15</v>
       </c>
-      <c r="AC9" s="41">
+      <c r="AC9" s="33">
         <v>40</v>
       </c>
-      <c r="AD9" s="41">
+      <c r="AD9" s="33">
         <v>38</v>
       </c>
-      <c r="AE9" s="41">
+      <c r="AE9" s="33">
         <v>59</v>
       </c>
       <c r="AF9" s="5">
         <v>25</v>
       </c>
-      <c r="AG9" s="33">
+      <c r="AG9" s="25">
         <f t="shared" si="0"/>
         <v>692</v>
       </c>
-      <c r="AH9" s="33">
+      <c r="AH9" s="25">
         <f t="shared" si="4"/>
         <v>57.7</v>
       </c>
-      <c r="AI9" s="34">
+      <c r="AI9" s="26">
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="AJ9" s="34">
+      <c r="AJ9" s="26">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="AK9" s="34">
+      <c r="AK9" s="26">
         <f t="shared" si="7"/>
         <v>122</v>
       </c>
-      <c r="AL9" s="34">
+      <c r="AL9" s="26">
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
-      <c r="AM9" s="34">
+      <c r="AM9" s="26">
         <f t="shared" si="9"/>
         <v>148</v>
       </c>
-      <c r="AN9" s="34">
+      <c r="AN9" s="26">
         <f t="shared" si="10"/>
         <v>94</v>
       </c>
-      <c r="AO9" s="34">
+      <c r="AO9" s="26">
         <f t="shared" si="11"/>
         <v>51</v>
       </c>
-      <c r="AP9" s="34">
+      <c r="AP9" s="26">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AQ9" s="34">
+      <c r="AQ9" s="26">
         <f t="shared" si="13"/>
         <v>61</v>
       </c>
-      <c r="AR9" s="34">
+      <c r="AR9" s="26">
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="AS9" s="34">
+      <c r="AS9" s="26">
         <f t="shared" si="15"/>
         <v>74</v>
       </c>
-      <c r="AT9" s="34">
+      <c r="AT9" s="26">
         <f t="shared" si="16"/>
         <v>47</v>
       </c>
-      <c r="AU9" s="35" t="str">
+      <c r="AU9" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV9" s="35" t="str">
+      <c r="AV9" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW9" s="35" t="str">
+      <c r="AW9" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B2</v>
       </c>
-      <c r="AX9" s="35" t="str">
+      <c r="AX9" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY9" s="35" t="str">
+      <c r="AY9" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ9" s="35" t="str">
+      <c r="AZ9" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C2</v>
       </c>
-      <c r="BA9" s="36">
+      <c r="BA9" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -2668,7 +2671,7 @@
         <v>6398850470</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="7">
         <v>18</v>
@@ -2724,105 +2727,105 @@
       <c r="Z10" s="8">
         <v>18</v>
       </c>
-      <c r="AA10" s="40">
+      <c r="AA10" s="32">
         <v>45</v>
       </c>
-      <c r="AB10" s="40">
+      <c r="AB10" s="32">
         <v>20</v>
       </c>
-      <c r="AC10" s="41">
+      <c r="AC10" s="33">
         <v>39</v>
       </c>
-      <c r="AD10" s="41">
+      <c r="AD10" s="33">
         <v>29</v>
       </c>
-      <c r="AE10" s="41">
+      <c r="AE10" s="33">
         <v>69</v>
       </c>
       <c r="AF10" s="5">
         <v>46</v>
       </c>
-      <c r="AG10" s="33">
+      <c r="AG10" s="25">
         <f t="shared" si="0"/>
         <v>781</v>
       </c>
-      <c r="AH10" s="33">
+      <c r="AH10" s="25">
         <f t="shared" si="4"/>
         <v>65.099999999999994</v>
       </c>
-      <c r="AI10" s="34">
+      <c r="AI10" s="26">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="AJ10" s="34">
+      <c r="AJ10" s="26">
         <f t="shared" si="6"/>
         <v>98</v>
       </c>
-      <c r="AK10" s="34">
+      <c r="AK10" s="26">
         <f t="shared" si="7"/>
         <v>137</v>
       </c>
-      <c r="AL10" s="34">
+      <c r="AL10" s="26">
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="AM10" s="34">
+      <c r="AM10" s="26">
         <f t="shared" si="9"/>
         <v>173</v>
       </c>
-      <c r="AN10" s="34">
+      <c r="AN10" s="26">
         <f t="shared" si="10"/>
         <v>126</v>
       </c>
-      <c r="AO10" s="34">
+      <c r="AO10" s="26">
         <f t="shared" si="11"/>
         <v>59</v>
       </c>
-      <c r="AP10" s="34">
+      <c r="AP10" s="26">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
-      <c r="AQ10" s="34">
+      <c r="AQ10" s="26">
         <f t="shared" si="13"/>
         <v>68.5</v>
       </c>
-      <c r="AR10" s="34">
+      <c r="AR10" s="26">
         <f t="shared" si="14"/>
         <v>64.5</v>
       </c>
-      <c r="AS10" s="34">
+      <c r="AS10" s="26">
         <f t="shared" si="15"/>
         <v>86.5</v>
       </c>
-      <c r="AT10" s="34">
+      <c r="AT10" s="26">
         <f t="shared" si="16"/>
         <v>63</v>
       </c>
-      <c r="AU10" s="35" t="str">
+      <c r="AU10" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV10" s="35" t="str">
+      <c r="AV10" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW10" s="35" t="str">
+      <c r="AW10" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B2</v>
       </c>
-      <c r="AX10" s="35" t="str">
+      <c r="AX10" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY10" s="35" t="str">
+      <c r="AY10" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="AZ10" s="35" t="str">
+      <c r="AZ10" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B2</v>
       </c>
-      <c r="BA10" s="36">
+      <c r="BA10" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -2869,141 +2872,141 @@
       <c r="N11" s="7">
         <v>14</v>
       </c>
-      <c r="O11" s="42" t="s">
+      <c r="O11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="42" t="s">
+      <c r="P11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="42" t="s">
+      <c r="Q11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="42" t="s">
+      <c r="R11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="42" t="s">
+      <c r="S11" s="34" t="s">
         <v>31</v>
       </c>
       <c r="T11" s="7">
         <v>35</v>
       </c>
       <c r="U11" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V11" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W11" s="8">
         <v>19</v>
       </c>
       <c r="X11" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="8">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="8">
         <v>19</v>
       </c>
-      <c r="Z11" s="8">
-        <v>18</v>
-      </c>
-      <c r="AA11" s="40">
+      <c r="AA11" s="32">
         <v>24</v>
       </c>
-      <c r="AB11" s="40">
+      <c r="AB11" s="32">
         <v>17</v>
       </c>
-      <c r="AC11" s="41">
+      <c r="AC11" s="33">
         <v>20</v>
       </c>
-      <c r="AD11" s="41">
+      <c r="AD11" s="33">
         <v>19</v>
       </c>
-      <c r="AE11" s="41">
+      <c r="AE11" s="33">
         <v>45</v>
       </c>
       <c r="AF11" s="5">
         <v>17</v>
       </c>
-      <c r="AG11" s="33">
+      <c r="AG11" s="25">
         <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-      <c r="AH11" s="33">
+        <v>396</v>
+      </c>
+      <c r="AH11" s="25">
         <f t="shared" si="4"/>
-        <v>32.5</v>
-      </c>
-      <c r="AI11" s="34">
+        <v>33</v>
+      </c>
+      <c r="AI11" s="26">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="AJ11" s="34">
+        <v>61</v>
+      </c>
+      <c r="AJ11" s="26">
         <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="AK11" s="34">
+        <v>55</v>
+      </c>
+      <c r="AK11" s="26">
         <f t="shared" si="7"/>
         <v>56</v>
       </c>
-      <c r="AL11" s="34">
+      <c r="AL11" s="26">
         <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-      <c r="AM11" s="34">
+        <v>56</v>
+      </c>
+      <c r="AM11" s="26">
         <f t="shared" si="9"/>
-        <v>82</v>
-      </c>
-      <c r="AN11" s="34">
+        <v>83</v>
+      </c>
+      <c r="AN11" s="26">
         <f t="shared" si="10"/>
-        <v>84</v>
-      </c>
-      <c r="AO11" s="34">
+        <v>85</v>
+      </c>
+      <c r="AO11" s="26">
         <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="AP11" s="34">
+        <v>30.5</v>
+      </c>
+      <c r="AP11" s="26">
         <f t="shared" si="12"/>
-        <v>27</v>
-      </c>
-      <c r="AQ11" s="34">
+        <v>27.5</v>
+      </c>
+      <c r="AQ11" s="26">
         <f t="shared" si="13"/>
         <v>28</v>
       </c>
-      <c r="AR11" s="34">
+      <c r="AR11" s="26">
         <f t="shared" si="14"/>
-        <v>27</v>
-      </c>
-      <c r="AS11" s="34">
+        <v>28</v>
+      </c>
+      <c r="AS11" s="26">
         <f t="shared" si="15"/>
-        <v>41</v>
-      </c>
-      <c r="AT11" s="34">
+        <v>41.5</v>
+      </c>
+      <c r="AT11" s="26">
         <f t="shared" si="16"/>
-        <v>42</v>
-      </c>
-      <c r="AU11" s="35" t="str">
+        <v>42.5</v>
+      </c>
+      <c r="AU11" s="27" t="str">
         <f t="shared" si="17"/>
         <v>E</v>
       </c>
-      <c r="AV11" s="35" t="str">
+      <c r="AV11" s="27" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
-      <c r="AW11" s="35" t="str">
+      <c r="AW11" s="27" t="str">
         <f t="shared" si="19"/>
         <v>E</v>
       </c>
-      <c r="AX11" s="35" t="str">
+      <c r="AX11" s="27" t="str">
         <f t="shared" si="20"/>
         <v>E</v>
       </c>
-      <c r="AY11" s="35" t="str">
+      <c r="AY11" s="27" t="str">
         <f t="shared" si="21"/>
         <v>C2</v>
       </c>
-      <c r="AZ11" s="35" t="str">
+      <c r="AZ11" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C2</v>
       </c>
-      <c r="BA11" s="36">
+      <c r="BA11" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -3030,7 +3033,7 @@
         <v>8476058643</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I12" s="7">
         <v>18</v>
@@ -3086,105 +3089,105 @@
       <c r="Z12" s="8">
         <v>15</v>
       </c>
-      <c r="AA12" s="40">
+      <c r="AA12" s="32">
         <v>31</v>
       </c>
-      <c r="AB12" s="40">
+      <c r="AB12" s="32">
         <v>24</v>
       </c>
-      <c r="AC12" s="41">
+      <c r="AC12" s="33">
         <v>47</v>
       </c>
-      <c r="AD12" s="41">
+      <c r="AD12" s="33">
         <v>47</v>
       </c>
-      <c r="AE12" s="41">
+      <c r="AE12" s="33">
         <v>59</v>
       </c>
       <c r="AF12" s="5">
         <v>44</v>
       </c>
-      <c r="AG12" s="33">
+      <c r="AG12" s="25">
         <f t="shared" si="0"/>
         <v>799</v>
       </c>
-      <c r="AH12" s="33">
+      <c r="AH12" s="25">
         <f t="shared" si="4"/>
         <v>66.599999999999994</v>
       </c>
-      <c r="AI12" s="34">
+      <c r="AI12" s="26">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="AJ12" s="34">
+      <c r="AJ12" s="26">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="AK12" s="34">
+      <c r="AK12" s="26">
         <f t="shared" si="7"/>
         <v>152</v>
       </c>
-      <c r="AL12" s="34">
+      <c r="AL12" s="26">
         <f t="shared" si="8"/>
         <v>134</v>
       </c>
-      <c r="AM12" s="34">
+      <c r="AM12" s="26">
         <f t="shared" si="9"/>
         <v>155</v>
       </c>
-      <c r="AN12" s="34">
+      <c r="AN12" s="26">
         <f t="shared" si="10"/>
         <v>139</v>
       </c>
-      <c r="AO12" s="34">
+      <c r="AO12" s="26">
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="AP12" s="34">
+      <c r="AP12" s="26">
         <f t="shared" si="12"/>
         <v>45.5</v>
       </c>
-      <c r="AQ12" s="34">
+      <c r="AQ12" s="26">
         <f t="shared" si="13"/>
         <v>76</v>
       </c>
-      <c r="AR12" s="34">
+      <c r="AR12" s="26">
         <f t="shared" si="14"/>
         <v>67</v>
       </c>
-      <c r="AS12" s="34">
+      <c r="AS12" s="26">
         <f t="shared" si="15"/>
         <v>77.5</v>
       </c>
-      <c r="AT12" s="34">
+      <c r="AT12" s="26">
         <f t="shared" si="16"/>
         <v>69.5</v>
       </c>
-      <c r="AU12" s="35" t="str">
+      <c r="AU12" s="27" t="str">
         <f t="shared" si="17"/>
         <v>B2</v>
       </c>
-      <c r="AV12" s="35" t="str">
+      <c r="AV12" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW12" s="35" t="str">
+      <c r="AW12" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B1</v>
       </c>
-      <c r="AX12" s="35" t="str">
+      <c r="AX12" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY12" s="35" t="str">
+      <c r="AY12" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ12" s="35" t="str">
+      <c r="AZ12" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B2</v>
       </c>
-      <c r="BA12" s="36">
+      <c r="BA12" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -3267,105 +3270,105 @@
       <c r="Z13" s="8">
         <v>18</v>
       </c>
-      <c r="AA13" s="40">
+      <c r="AA13" s="32">
         <v>47</v>
       </c>
-      <c r="AB13" s="40">
+      <c r="AB13" s="32">
         <v>29</v>
       </c>
-      <c r="AC13" s="41">
+      <c r="AC13" s="33">
         <v>34</v>
       </c>
-      <c r="AD13" s="41">
+      <c r="AD13" s="33">
         <v>49</v>
       </c>
-      <c r="AE13" s="41">
+      <c r="AE13" s="33">
         <v>65</v>
       </c>
       <c r="AF13" s="5">
         <v>49</v>
       </c>
-      <c r="AG13" s="33">
+      <c r="AG13" s="25">
         <f t="shared" si="0"/>
         <v>741</v>
       </c>
-      <c r="AH13" s="33">
+      <c r="AH13" s="25">
         <f t="shared" si="4"/>
         <v>61.8</v>
       </c>
-      <c r="AI13" s="34">
+      <c r="AI13" s="26">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="AJ13" s="34">
+      <c r="AJ13" s="26">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="AK13" s="34">
+      <c r="AK13" s="26">
         <f t="shared" si="7"/>
         <v>108</v>
       </c>
-      <c r="AL13" s="34">
+      <c r="AL13" s="26">
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="AM13" s="34">
+      <c r="AM13" s="26">
         <f t="shared" si="9"/>
         <v>147</v>
       </c>
-      <c r="AN13" s="34">
+      <c r="AN13" s="26">
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="AO13" s="34">
+      <c r="AO13" s="26">
         <f t="shared" si="11"/>
         <v>59</v>
       </c>
-      <c r="AP13" s="34">
+      <c r="AP13" s="26">
         <f t="shared" si="12"/>
         <v>49.5</v>
       </c>
-      <c r="AQ13" s="34">
+      <c r="AQ13" s="26">
         <f t="shared" si="13"/>
         <v>54</v>
       </c>
-      <c r="AR13" s="34">
+      <c r="AR13" s="26">
         <f t="shared" si="14"/>
         <v>64.5</v>
       </c>
-      <c r="AS13" s="34">
+      <c r="AS13" s="26">
         <f t="shared" si="15"/>
         <v>73.5</v>
       </c>
-      <c r="AT13" s="34">
+      <c r="AT13" s="26">
         <f t="shared" si="16"/>
         <v>70</v>
       </c>
-      <c r="AU13" s="35" t="str">
+      <c r="AU13" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV13" s="35" t="str">
+      <c r="AV13" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW13" s="35" t="str">
+      <c r="AW13" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="AX13" s="35" t="str">
+      <c r="AX13" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY13" s="35" t="str">
+      <c r="AY13" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ13" s="35" t="str">
+      <c r="AZ13" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B2</v>
       </c>
-      <c r="BA13" s="36">
+      <c r="BA13" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -3392,7 +3395,7 @@
         <v>9720791475</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I14" s="7">
         <v>14</v>
@@ -3448,105 +3451,105 @@
       <c r="Z14" s="8">
         <v>15</v>
       </c>
-      <c r="AA14" s="40">
+      <c r="AA14" s="32">
         <v>22</v>
       </c>
-      <c r="AB14" s="40">
+      <c r="AB14" s="32">
         <v>19</v>
       </c>
-      <c r="AC14" s="41">
+      <c r="AC14" s="33">
         <v>24</v>
       </c>
-      <c r="AD14" s="41">
+      <c r="AD14" s="33">
         <v>17</v>
       </c>
-      <c r="AE14" s="41">
+      <c r="AE14" s="33">
         <v>41</v>
       </c>
       <c r="AF14" s="5">
         <v>18</v>
       </c>
-      <c r="AG14" s="33">
+      <c r="AG14" s="25">
         <f t="shared" si="0"/>
         <v>503</v>
       </c>
-      <c r="AH14" s="33">
+      <c r="AH14" s="25">
         <f t="shared" si="4"/>
         <v>41.9</v>
       </c>
-      <c r="AI14" s="34">
+      <c r="AI14" s="26">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="AJ14" s="34">
+      <c r="AJ14" s="26">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
-      <c r="AK14" s="34">
+      <c r="AK14" s="26">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="AL14" s="34">
+      <c r="AL14" s="26">
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="AM14" s="34">
+      <c r="AM14" s="26">
         <f t="shared" si="9"/>
         <v>110</v>
       </c>
-      <c r="AN14" s="34">
+      <c r="AN14" s="26">
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="AO14" s="34">
+      <c r="AO14" s="26">
         <f t="shared" si="11"/>
         <v>33.5</v>
       </c>
-      <c r="AP14" s="34">
+      <c r="AP14" s="26">
         <f t="shared" si="12"/>
         <v>38.5</v>
       </c>
-      <c r="AQ14" s="34">
+      <c r="AQ14" s="26">
         <f t="shared" si="13"/>
         <v>43.5</v>
       </c>
-      <c r="AR14" s="34">
+      <c r="AR14" s="26">
         <f t="shared" si="14"/>
         <v>45.5</v>
       </c>
-      <c r="AS14" s="34">
+      <c r="AS14" s="26">
         <f t="shared" si="15"/>
         <v>55</v>
       </c>
-      <c r="AT14" s="34">
+      <c r="AT14" s="26">
         <f t="shared" si="16"/>
         <v>35.5</v>
       </c>
-      <c r="AU14" s="35" t="str">
+      <c r="AU14" s="27" t="str">
         <f t="shared" si="17"/>
         <v>D</v>
       </c>
-      <c r="AV14" s="35" t="str">
+      <c r="AV14" s="27" t="str">
         <f t="shared" si="18"/>
         <v>D</v>
       </c>
-      <c r="AW14" s="35" t="str">
+      <c r="AW14" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C2</v>
       </c>
-      <c r="AX14" s="35" t="str">
+      <c r="AX14" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C2</v>
       </c>
-      <c r="AY14" s="35" t="str">
+      <c r="AY14" s="27" t="str">
         <f t="shared" si="21"/>
         <v>C1</v>
       </c>
-      <c r="AZ14" s="35" t="str">
+      <c r="AZ14" s="27" t="str">
         <f t="shared" si="22"/>
         <v>D</v>
       </c>
-      <c r="BA14" s="36">
+      <c r="BA14" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -3629,105 +3632,105 @@
       <c r="Z15" s="8">
         <v>17</v>
       </c>
-      <c r="AA15" s="40">
+      <c r="AA15" s="32">
         <v>35</v>
       </c>
-      <c r="AB15" s="40">
+      <c r="AB15" s="32">
         <v>27</v>
       </c>
-      <c r="AC15" s="41">
+      <c r="AC15" s="33">
         <v>35</v>
       </c>
-      <c r="AD15" s="41">
+      <c r="AD15" s="33">
         <v>44</v>
       </c>
-      <c r="AE15" s="41">
+      <c r="AE15" s="33">
         <v>66</v>
       </c>
       <c r="AF15" s="5">
         <v>43</v>
       </c>
-      <c r="AG15" s="33">
+      <c r="AG15" s="25">
         <f t="shared" si="0"/>
         <v>783</v>
       </c>
-      <c r="AH15" s="33">
+      <c r="AH15" s="25">
         <f t="shared" si="4"/>
         <v>65.3</v>
       </c>
-      <c r="AI15" s="34">
+      <c r="AI15" s="26">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="AJ15" s="34">
+      <c r="AJ15" s="26">
         <f t="shared" si="6"/>
         <v>93</v>
       </c>
-      <c r="AK15" s="34">
+      <c r="AK15" s="26">
         <f t="shared" si="7"/>
         <v>136</v>
       </c>
-      <c r="AL15" s="34">
+      <c r="AL15" s="26">
         <f t="shared" si="8"/>
         <v>143</v>
       </c>
-      <c r="AM15" s="34">
+      <c r="AM15" s="26">
         <f t="shared" si="9"/>
         <v>166</v>
       </c>
-      <c r="AN15" s="34">
+      <c r="AN15" s="26">
         <f t="shared" si="10"/>
         <v>133</v>
       </c>
-      <c r="AO15" s="34">
+      <c r="AO15" s="26">
         <f t="shared" si="11"/>
         <v>56</v>
       </c>
-      <c r="AP15" s="34">
+      <c r="AP15" s="26">
         <f t="shared" si="12"/>
         <v>46.5</v>
       </c>
-      <c r="AQ15" s="34">
+      <c r="AQ15" s="26">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
-      <c r="AR15" s="34">
+      <c r="AR15" s="26">
         <f t="shared" si="14"/>
         <v>71.5</v>
       </c>
-      <c r="AS15" s="34">
+      <c r="AS15" s="26">
         <f t="shared" si="15"/>
         <v>83</v>
       </c>
-      <c r="AT15" s="34">
+      <c r="AT15" s="26">
         <f t="shared" si="16"/>
         <v>66.5</v>
       </c>
-      <c r="AU15" s="35" t="str">
+      <c r="AU15" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV15" s="35" t="str">
+      <c r="AV15" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW15" s="35" t="str">
+      <c r="AW15" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B2</v>
       </c>
-      <c r="AX15" s="35" t="str">
+      <c r="AX15" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B1</v>
       </c>
-      <c r="AY15" s="35" t="str">
+      <c r="AY15" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="AZ15" s="35" t="str">
+      <c r="AZ15" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B2</v>
       </c>
-      <c r="BA15" s="36">
+      <c r="BA15" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -3810,105 +3813,105 @@
       <c r="Z16" s="8">
         <v>19</v>
       </c>
-      <c r="AA16" s="40">
+      <c r="AA16" s="32">
         <v>64</v>
       </c>
-      <c r="AB16" s="40">
+      <c r="AB16" s="32">
         <v>54</v>
       </c>
-      <c r="AC16" s="41">
+      <c r="AC16" s="33">
         <v>67</v>
       </c>
-      <c r="AD16" s="41">
+      <c r="AD16" s="33">
         <v>62</v>
       </c>
-      <c r="AE16" s="41">
+      <c r="AE16" s="33">
         <v>76</v>
       </c>
       <c r="AF16" s="5">
         <v>63</v>
       </c>
-      <c r="AG16" s="33">
+      <c r="AG16" s="25">
         <f t="shared" si="0"/>
         <v>984</v>
       </c>
-      <c r="AH16" s="33">
+      <c r="AH16" s="25">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="AI16" s="34">
+      <c r="AI16" s="26">
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
-      <c r="AJ16" s="34">
+      <c r="AJ16" s="26">
         <f t="shared" si="6"/>
         <v>141</v>
       </c>
-      <c r="AK16" s="34">
+      <c r="AK16" s="26">
         <f t="shared" si="7"/>
         <v>176</v>
       </c>
-      <c r="AL16" s="34">
+      <c r="AL16" s="26">
         <f t="shared" si="8"/>
         <v>156</v>
       </c>
-      <c r="AM16" s="34">
+      <c r="AM16" s="26">
         <f t="shared" si="9"/>
         <v>183</v>
       </c>
-      <c r="AN16" s="34">
+      <c r="AN16" s="26">
         <f t="shared" si="10"/>
         <v>167</v>
       </c>
-      <c r="AO16" s="34">
+      <c r="AO16" s="26">
         <f t="shared" si="11"/>
         <v>80.5</v>
       </c>
-      <c r="AP16" s="34">
+      <c r="AP16" s="26">
         <f t="shared" si="12"/>
         <v>70.5</v>
       </c>
-      <c r="AQ16" s="34">
+      <c r="AQ16" s="26">
         <f t="shared" si="13"/>
         <v>88</v>
       </c>
-      <c r="AR16" s="34">
+      <c r="AR16" s="26">
         <f t="shared" si="14"/>
         <v>78</v>
       </c>
-      <c r="AS16" s="34">
+      <c r="AS16" s="26">
         <f t="shared" si="15"/>
         <v>91.5</v>
       </c>
-      <c r="AT16" s="34">
+      <c r="AT16" s="26">
         <f t="shared" si="16"/>
         <v>83.5</v>
       </c>
-      <c r="AU16" s="35" t="str">
+      <c r="AU16" s="27" t="str">
         <f t="shared" si="17"/>
         <v>A2</v>
       </c>
-      <c r="AV16" s="35" t="str">
+      <c r="AV16" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B1</v>
       </c>
-      <c r="AW16" s="35" t="str">
+      <c r="AW16" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A2</v>
       </c>
-      <c r="AX16" s="35" t="str">
+      <c r="AX16" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B1</v>
       </c>
-      <c r="AY16" s="35" t="str">
+      <c r="AY16" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A1</v>
       </c>
-      <c r="AZ16" s="35" t="str">
+      <c r="AZ16" s="27" t="str">
         <f t="shared" si="22"/>
         <v>A2</v>
       </c>
-      <c r="BA16" s="36">
+      <c r="BA16" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -3935,7 +3938,7 @@
         <v>8377009298</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I17" s="7">
         <v>18</v>
@@ -3991,105 +3994,105 @@
       <c r="Z17" s="8">
         <v>18</v>
       </c>
-      <c r="AA17" s="40">
+      <c r="AA17" s="32">
         <v>61</v>
       </c>
-      <c r="AB17" s="40">
+      <c r="AB17" s="32">
         <v>66</v>
       </c>
-      <c r="AC17" s="41">
+      <c r="AC17" s="33">
         <v>64</v>
       </c>
-      <c r="AD17" s="41">
+      <c r="AD17" s="33">
         <v>65</v>
       </c>
-      <c r="AE17" s="41">
+      <c r="AE17" s="33">
         <v>74</v>
       </c>
       <c r="AF17" s="5">
         <v>66</v>
       </c>
-      <c r="AG17" s="33">
+      <c r="AG17" s="25">
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
-      <c r="AH17" s="33">
+      <c r="AH17" s="25">
         <f t="shared" si="4"/>
         <v>84.5</v>
       </c>
-      <c r="AI17" s="34">
+      <c r="AI17" s="26">
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
-      <c r="AJ17" s="34">
+      <c r="AJ17" s="26">
         <f t="shared" si="6"/>
         <v>159</v>
       </c>
-      <c r="AK17" s="34">
+      <c r="AK17" s="26">
         <f t="shared" si="7"/>
         <v>176</v>
       </c>
-      <c r="AL17" s="34">
+      <c r="AL17" s="26">
         <f t="shared" si="8"/>
         <v>170</v>
       </c>
-      <c r="AM17" s="34">
+      <c r="AM17" s="26">
         <f t="shared" si="9"/>
         <v>178</v>
       </c>
-      <c r="AN17" s="34">
+      <c r="AN17" s="26">
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="AO17" s="34">
+      <c r="AO17" s="26">
         <f t="shared" si="11"/>
         <v>80.5</v>
       </c>
-      <c r="AP17" s="34">
+      <c r="AP17" s="26">
         <f t="shared" si="12"/>
         <v>79.5</v>
       </c>
-      <c r="AQ17" s="34">
+      <c r="AQ17" s="26">
         <f t="shared" si="13"/>
         <v>88</v>
       </c>
-      <c r="AR17" s="34">
+      <c r="AR17" s="26">
         <f t="shared" si="14"/>
         <v>85</v>
       </c>
-      <c r="AS17" s="34">
+      <c r="AS17" s="26">
         <f t="shared" si="15"/>
         <v>89</v>
       </c>
-      <c r="AT17" s="34">
+      <c r="AT17" s="26">
         <f t="shared" si="16"/>
         <v>85</v>
       </c>
-      <c r="AU17" s="35" t="str">
+      <c r="AU17" s="27" t="str">
         <f t="shared" si="17"/>
         <v>A2</v>
       </c>
-      <c r="AV17" s="35" t="str">
+      <c r="AV17" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B1</v>
       </c>
-      <c r="AW17" s="35" t="str">
+      <c r="AW17" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A2</v>
       </c>
-      <c r="AX17" s="35" t="str">
+      <c r="AX17" s="27" t="str">
         <f t="shared" si="20"/>
         <v>A2</v>
       </c>
-      <c r="AY17" s="35" t="str">
+      <c r="AY17" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="AZ17" s="35" t="str">
+      <c r="AZ17" s="27" t="str">
         <f t="shared" si="22"/>
         <v>A2</v>
       </c>
-      <c r="BA17" s="36">
+      <c r="BA17" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -4172,105 +4175,105 @@
       <c r="Z18" s="8">
         <v>18</v>
       </c>
-      <c r="AA18" s="40">
+      <c r="AA18" s="32">
         <v>70</v>
       </c>
-      <c r="AB18" s="40">
+      <c r="AB18" s="32">
         <v>33</v>
       </c>
-      <c r="AC18" s="41">
+      <c r="AC18" s="33">
         <v>66</v>
       </c>
-      <c r="AD18" s="41">
+      <c r="AD18" s="33">
         <v>72</v>
       </c>
-      <c r="AE18" s="41">
+      <c r="AE18" s="33">
         <v>78</v>
       </c>
       <c r="AF18" s="5">
         <v>60</v>
       </c>
-      <c r="AG18" s="33">
+      <c r="AG18" s="25">
         <f t="shared" si="0"/>
         <v>1017</v>
       </c>
-      <c r="AH18" s="33">
+      <c r="AH18" s="25">
         <f t="shared" si="4"/>
         <v>84.8</v>
       </c>
-      <c r="AI18" s="34">
+      <c r="AI18" s="26">
         <f t="shared" si="5"/>
         <v>178</v>
       </c>
-      <c r="AJ18" s="34">
+      <c r="AJ18" s="26">
         <f t="shared" si="6"/>
         <v>119</v>
       </c>
-      <c r="AK18" s="34">
+      <c r="AK18" s="26">
         <f t="shared" si="7"/>
         <v>181</v>
       </c>
-      <c r="AL18" s="34">
+      <c r="AL18" s="26">
         <f t="shared" si="8"/>
         <v>185</v>
       </c>
-      <c r="AM18" s="34">
+      <c r="AM18" s="26">
         <f t="shared" si="9"/>
         <v>185</v>
       </c>
-      <c r="AN18" s="34">
+      <c r="AN18" s="26">
         <f t="shared" si="10"/>
         <v>169</v>
       </c>
-      <c r="AO18" s="34">
+      <c r="AO18" s="26">
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-      <c r="AP18" s="34">
+      <c r="AP18" s="26">
         <f t="shared" si="12"/>
         <v>59.5</v>
       </c>
-      <c r="AQ18" s="34">
+      <c r="AQ18" s="26">
         <f t="shared" si="13"/>
         <v>90.5</v>
       </c>
-      <c r="AR18" s="34">
+      <c r="AR18" s="26">
         <f t="shared" si="14"/>
         <v>92.5</v>
       </c>
-      <c r="AS18" s="34">
+      <c r="AS18" s="26">
         <f t="shared" si="15"/>
         <v>92.5</v>
       </c>
-      <c r="AT18" s="34">
+      <c r="AT18" s="26">
         <f t="shared" si="16"/>
         <v>84.5</v>
       </c>
-      <c r="AU18" s="35" t="str">
+      <c r="AU18" s="27" t="str">
         <f t="shared" si="17"/>
         <v>A2</v>
       </c>
-      <c r="AV18" s="35" t="str">
+      <c r="AV18" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW18" s="35" t="str">
+      <c r="AW18" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A1</v>
       </c>
-      <c r="AX18" s="35" t="str">
+      <c r="AX18" s="27" t="str">
         <f t="shared" si="20"/>
         <v>A1</v>
       </c>
-      <c r="AY18" s="35" t="str">
+      <c r="AY18" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A1</v>
       </c>
-      <c r="AZ18" s="35" t="str">
+      <c r="AZ18" s="27" t="str">
         <f t="shared" si="22"/>
         <v>A2</v>
       </c>
-      <c r="BA18" s="36">
+      <c r="BA18" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -4297,7 +4300,7 @@
         <v>9557295978</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I19" s="7">
         <v>16</v>
@@ -4326,7 +4329,7 @@
       <c r="Q19" s="7">
         <v>38</v>
       </c>
-      <c r="R19" s="42" t="s">
+      <c r="R19" s="34" t="s">
         <v>31</v>
       </c>
       <c r="S19" s="8">
@@ -4353,105 +4356,105 @@
       <c r="Z19" s="8">
         <v>14</v>
       </c>
-      <c r="AA19" s="40">
+      <c r="AA19" s="32">
         <v>21</v>
       </c>
-      <c r="AB19" s="40">
+      <c r="AB19" s="32">
         <v>8</v>
       </c>
-      <c r="AC19" s="41">
+      <c r="AC19" s="33">
         <v>14</v>
       </c>
-      <c r="AD19" s="41">
+      <c r="AD19" s="33">
         <v>22</v>
       </c>
-      <c r="AE19" s="41">
+      <c r="AE19" s="33">
         <v>38</v>
       </c>
       <c r="AF19" s="5">
         <v>18</v>
       </c>
-      <c r="AG19" s="33">
+      <c r="AG19" s="25">
         <f t="shared" si="0"/>
         <v>499</v>
       </c>
-      <c r="AH19" s="33">
+      <c r="AH19" s="25">
         <f t="shared" si="4"/>
         <v>41.6</v>
       </c>
-      <c r="AI19" s="34">
+      <c r="AI19" s="26">
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="AJ19" s="34">
+      <c r="AJ19" s="26">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="AK19" s="34">
+      <c r="AK19" s="26">
         <f t="shared" si="7"/>
         <v>74</v>
       </c>
-      <c r="AL19" s="34">
+      <c r="AL19" s="26">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
-      <c r="AM19" s="34">
+      <c r="AM19" s="26">
         <f t="shared" si="9"/>
         <v>110</v>
       </c>
-      <c r="AN19" s="34">
+      <c r="AN19" s="26">
         <f t="shared" si="10"/>
         <v>88</v>
       </c>
-      <c r="AO19" s="34">
+      <c r="AO19" s="26">
         <f t="shared" si="11"/>
         <v>40.5</v>
       </c>
-      <c r="AP19" s="34">
+      <c r="AP19" s="26">
         <f t="shared" si="12"/>
         <v>45.5</v>
       </c>
-      <c r="AQ19" s="34">
+      <c r="AQ19" s="26">
         <f t="shared" si="13"/>
         <v>37</v>
       </c>
-      <c r="AR19" s="34">
+      <c r="AR19" s="26">
         <f t="shared" si="14"/>
         <v>27.5</v>
       </c>
-      <c r="AS19" s="34">
+      <c r="AS19" s="26">
         <f t="shared" si="15"/>
         <v>55</v>
       </c>
-      <c r="AT19" s="34">
+      <c r="AT19" s="26">
         <f t="shared" si="16"/>
         <v>44</v>
       </c>
-      <c r="AU19" s="35" t="str">
+      <c r="AU19" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C2</v>
       </c>
-      <c r="AV19" s="35" t="str">
+      <c r="AV19" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW19" s="35" t="str">
+      <c r="AW19" s="27" t="str">
         <f t="shared" si="19"/>
         <v>D</v>
       </c>
-      <c r="AX19" s="35" t="str">
+      <c r="AX19" s="27" t="str">
         <f t="shared" si="20"/>
         <v>E</v>
       </c>
-      <c r="AY19" s="35" t="str">
+      <c r="AY19" s="27" t="str">
         <f t="shared" si="21"/>
         <v>C1</v>
       </c>
-      <c r="AZ19" s="35" t="str">
+      <c r="AZ19" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C2</v>
       </c>
-      <c r="BA19" s="36">
+      <c r="BA19" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -4486,7 +4489,7 @@
       <c r="J20" s="7">
         <v>17</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="K20" s="34" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="8">
@@ -4534,105 +4537,105 @@
       <c r="Z20" s="8">
         <v>19</v>
       </c>
-      <c r="AA20" s="40">
+      <c r="AA20" s="32">
         <v>43</v>
       </c>
-      <c r="AB20" s="40">
+      <c r="AB20" s="32">
         <v>16</v>
       </c>
-      <c r="AC20" s="41">
+      <c r="AC20" s="33">
         <v>38</v>
       </c>
-      <c r="AD20" s="41">
+      <c r="AD20" s="33">
         <v>32</v>
       </c>
-      <c r="AE20" s="41">
+      <c r="AE20" s="33">
         <v>70</v>
       </c>
       <c r="AF20" s="5">
         <v>35</v>
       </c>
-      <c r="AG20" s="33">
+      <c r="AG20" s="25">
         <f t="shared" si="0"/>
         <v>677</v>
       </c>
-      <c r="AH20" s="33">
+      <c r="AH20" s="25">
         <f t="shared" si="4"/>
         <v>56.4</v>
       </c>
-      <c r="AI20" s="34">
+      <c r="AI20" s="26">
         <f t="shared" si="5"/>
         <v>107</v>
       </c>
-      <c r="AJ20" s="34">
+      <c r="AJ20" s="26">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="AK20" s="34">
+      <c r="AK20" s="26">
         <f t="shared" si="7"/>
         <v>105</v>
       </c>
-      <c r="AL20" s="34">
+      <c r="AL20" s="26">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="AM20" s="34">
+      <c r="AM20" s="26">
         <f t="shared" si="9"/>
         <v>165</v>
       </c>
-      <c r="AN20" s="34">
+      <c r="AN20" s="26">
         <f t="shared" si="10"/>
         <v>118</v>
       </c>
-      <c r="AO20" s="34">
+      <c r="AO20" s="26">
         <f t="shared" si="11"/>
         <v>53.5</v>
       </c>
-      <c r="AP20" s="34">
+      <c r="AP20" s="26">
         <f t="shared" si="12"/>
         <v>35.5</v>
       </c>
-      <c r="AQ20" s="34">
+      <c r="AQ20" s="26">
         <f t="shared" si="13"/>
         <v>52.5</v>
       </c>
-      <c r="AR20" s="34">
+      <c r="AR20" s="26">
         <f t="shared" si="14"/>
         <v>55.5</v>
       </c>
-      <c r="AS20" s="34">
+      <c r="AS20" s="26">
         <f t="shared" si="15"/>
         <v>82.5</v>
       </c>
-      <c r="AT20" s="34">
+      <c r="AT20" s="26">
         <f t="shared" si="16"/>
         <v>59</v>
       </c>
-      <c r="AU20" s="35" t="str">
+      <c r="AU20" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV20" s="35" t="str">
+      <c r="AV20" s="27" t="str">
         <f t="shared" si="18"/>
         <v>D</v>
       </c>
-      <c r="AW20" s="35" t="str">
+      <c r="AW20" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="AX20" s="35" t="str">
+      <c r="AX20" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C1</v>
       </c>
-      <c r="AY20" s="35" t="str">
+      <c r="AY20" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="AZ20" s="35" t="str">
+      <c r="AZ20" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C1</v>
       </c>
-      <c r="BA20" s="36">
+      <c r="BA20" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -4659,7 +4662,7 @@
         <v>9719043108</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I21" s="7">
         <v>18</v>
@@ -4715,105 +4718,105 @@
       <c r="Z21" s="8">
         <v>17</v>
       </c>
-      <c r="AA21" s="40">
+      <c r="AA21" s="32">
         <v>44</v>
       </c>
-      <c r="AB21" s="40">
+      <c r="AB21" s="32">
         <v>8</v>
       </c>
-      <c r="AC21" s="41">
+      <c r="AC21" s="33">
         <v>30</v>
       </c>
-      <c r="AD21" s="41">
+      <c r="AD21" s="33">
         <v>63</v>
       </c>
-      <c r="AE21" s="41">
+      <c r="AE21" s="33">
         <v>67</v>
       </c>
       <c r="AF21" s="5">
         <v>25</v>
       </c>
-      <c r="AG21" s="33">
+      <c r="AG21" s="25">
         <f t="shared" si="0"/>
         <v>671</v>
       </c>
-      <c r="AH21" s="33">
+      <c r="AH21" s="25">
         <f t="shared" si="4"/>
         <v>55.9</v>
       </c>
-      <c r="AI21" s="34">
+      <c r="AI21" s="26">
         <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="AJ21" s="34">
+      <c r="AJ21" s="26">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="AK21" s="34">
+      <c r="AK21" s="26">
         <f t="shared" si="7"/>
         <v>110</v>
       </c>
-      <c r="AL21" s="34">
+      <c r="AL21" s="26">
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="AM21" s="34">
+      <c r="AM21" s="26">
         <f t="shared" si="9"/>
         <v>141</v>
       </c>
-      <c r="AN21" s="34">
+      <c r="AN21" s="26">
         <f t="shared" si="10"/>
         <v>89</v>
       </c>
-      <c r="AO21" s="34">
+      <c r="AO21" s="26">
         <f t="shared" si="11"/>
         <v>52.5</v>
       </c>
-      <c r="AP21" s="34">
+      <c r="AP21" s="26">
         <f t="shared" si="12"/>
         <v>30.5</v>
       </c>
-      <c r="AQ21" s="34">
+      <c r="AQ21" s="26">
         <f t="shared" si="13"/>
         <v>55</v>
       </c>
-      <c r="AR21" s="34">
+      <c r="AR21" s="26">
         <f t="shared" si="14"/>
         <v>82.5</v>
       </c>
-      <c r="AS21" s="34">
+      <c r="AS21" s="26">
         <f t="shared" si="15"/>
         <v>70.5</v>
       </c>
-      <c r="AT21" s="34">
+      <c r="AT21" s="26">
         <f t="shared" si="16"/>
         <v>44.5</v>
       </c>
-      <c r="AU21" s="35" t="str">
+      <c r="AU21" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV21" s="35" t="str">
+      <c r="AV21" s="27" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
-      <c r="AW21" s="35" t="str">
+      <c r="AW21" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="AX21" s="35" t="str">
+      <c r="AX21" s="27" t="str">
         <f t="shared" si="20"/>
         <v>A2</v>
       </c>
-      <c r="AY21" s="35" t="str">
+      <c r="AY21" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ21" s="35" t="str">
+      <c r="AZ21" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C2</v>
       </c>
-      <c r="BA21" s="36">
+      <c r="BA21" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -4840,7 +4843,7 @@
         <v>8273888489</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I22" s="7">
         <v>18</v>
@@ -4878,123 +4881,123 @@
       <c r="T22" s="7">
         <v>68</v>
       </c>
-      <c r="U22" s="42" t="s">
+      <c r="U22" s="34" t="s">
         <v>31</v>
       </c>
       <c r="V22" s="8">
         <v>13</v>
       </c>
-      <c r="W22" s="42" t="s">
+      <c r="W22" s="34" t="s">
         <v>31</v>
       </c>
       <c r="X22" s="8">
         <v>18</v>
       </c>
-      <c r="Y22" s="42" t="s">
+      <c r="Y22" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Z22" s="42" t="s">
+      <c r="Z22" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AA22" s="40">
+      <c r="AA22" s="32">
         <v>54</v>
       </c>
-      <c r="AB22" s="40">
+      <c r="AB22" s="32">
         <v>54</v>
       </c>
-      <c r="AC22" s="41">
+      <c r="AC22" s="33">
         <v>51</v>
       </c>
-      <c r="AD22" s="41">
+      <c r="AD22" s="33">
         <v>69</v>
       </c>
-      <c r="AE22" s="41">
+      <c r="AE22" s="33">
         <v>74</v>
       </c>
       <c r="AF22" s="5">
         <v>60</v>
       </c>
-      <c r="AG22" s="33">
+      <c r="AG22" s="25">
         <f t="shared" si="0"/>
         <v>839</v>
       </c>
-      <c r="AH22" s="33">
+      <c r="AH22" s="25">
         <f t="shared" si="4"/>
         <v>69.900000000000006</v>
       </c>
-      <c r="AI22" s="34">
+      <c r="AI22" s="26">
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="AJ22" s="34">
+      <c r="AJ22" s="26">
         <f t="shared" si="6"/>
         <v>125</v>
       </c>
-      <c r="AK22" s="34">
+      <c r="AK22" s="26">
         <f t="shared" si="7"/>
         <v>127</v>
       </c>
-      <c r="AL22" s="34">
+      <c r="AL22" s="26">
         <f t="shared" si="8"/>
         <v>164</v>
       </c>
-      <c r="AM22" s="34">
+      <c r="AM22" s="26">
         <f t="shared" si="9"/>
         <v>162</v>
       </c>
-      <c r="AN22" s="34">
+      <c r="AN22" s="26">
         <f t="shared" si="10"/>
         <v>146</v>
       </c>
-      <c r="AO22" s="34">
+      <c r="AO22" s="26">
         <f t="shared" si="11"/>
         <v>57.5</v>
       </c>
-      <c r="AP22" s="34">
+      <c r="AP22" s="26">
         <f t="shared" si="12"/>
         <v>62.5</v>
       </c>
-      <c r="AQ22" s="34">
+      <c r="AQ22" s="26">
         <f t="shared" si="13"/>
         <v>63.5</v>
       </c>
-      <c r="AR22" s="34">
+      <c r="AR22" s="26">
         <f t="shared" si="14"/>
         <v>82</v>
       </c>
-      <c r="AS22" s="34">
+      <c r="AS22" s="26">
         <f t="shared" si="15"/>
         <v>81</v>
       </c>
-      <c r="AT22" s="34">
+      <c r="AT22" s="26">
         <f t="shared" si="16"/>
         <v>73</v>
       </c>
-      <c r="AU22" s="35" t="str">
+      <c r="AU22" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV22" s="35" t="str">
+      <c r="AV22" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B2</v>
       </c>
-      <c r="AW22" s="35" t="str">
+      <c r="AW22" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B2</v>
       </c>
-      <c r="AX22" s="35" t="str">
+      <c r="AX22" s="27" t="str">
         <f t="shared" si="20"/>
         <v>A2</v>
       </c>
-      <c r="AY22" s="35" t="str">
+      <c r="AY22" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="AZ22" s="35" t="str">
+      <c r="AZ22" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B1</v>
       </c>
-      <c r="BA22" s="36">
+      <c r="BA22" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -5050,7 +5053,7 @@
       <c r="Q23" s="7">
         <v>63</v>
       </c>
-      <c r="R23" s="42" t="s">
+      <c r="R23" s="34" t="s">
         <v>31</v>
       </c>
       <c r="S23" s="8">
@@ -5059,123 +5062,123 @@
       <c r="T23" s="7">
         <v>53</v>
       </c>
-      <c r="U23" s="42" t="s">
+      <c r="U23" s="34" t="s">
         <v>31</v>
       </c>
       <c r="V23" s="8">
         <v>13</v>
       </c>
-      <c r="W23" s="42" t="s">
+      <c r="W23" s="34" t="s">
         <v>31</v>
       </c>
       <c r="X23" s="8">
         <v>18</v>
       </c>
-      <c r="Y23" s="42" t="s">
+      <c r="Y23" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Z23" s="42" t="s">
+      <c r="Z23" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AA23" s="40">
+      <c r="AA23" s="32">
         <v>39</v>
       </c>
-      <c r="AB23" s="40">
+      <c r="AB23" s="32">
         <v>41</v>
       </c>
-      <c r="AC23" s="41">
+      <c r="AC23" s="33">
         <v>30</v>
       </c>
-      <c r="AD23" s="41">
+      <c r="AD23" s="33">
         <v>42</v>
       </c>
-      <c r="AE23" s="41">
+      <c r="AE23" s="33">
         <v>52</v>
       </c>
       <c r="AF23" s="5">
         <v>28</v>
       </c>
-      <c r="AG23" s="33">
+      <c r="AG23" s="25">
         <f t="shared" si="0"/>
         <v>628</v>
       </c>
-      <c r="AH23" s="33">
+      <c r="AH23" s="25">
         <f t="shared" si="4"/>
         <v>52.3</v>
       </c>
-      <c r="AI23" s="34">
+      <c r="AI23" s="26">
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="AJ23" s="34">
+      <c r="AJ23" s="26">
         <f t="shared" si="6"/>
         <v>106</v>
       </c>
-      <c r="AK23" s="34">
+      <c r="AK23" s="26">
         <f t="shared" si="7"/>
         <v>111</v>
       </c>
-      <c r="AL23" s="34">
+      <c r="AL23" s="26">
         <f t="shared" si="8"/>
         <v>78</v>
       </c>
-      <c r="AM23" s="34">
+      <c r="AM23" s="26">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="AN23" s="34">
+      <c r="AN23" s="26">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="AO23" s="34">
+      <c r="AO23" s="26">
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
-      <c r="AP23" s="34">
+      <c r="AP23" s="26">
         <f t="shared" si="12"/>
         <v>53</v>
       </c>
-      <c r="AQ23" s="34">
+      <c r="AQ23" s="26">
         <f t="shared" si="13"/>
         <v>55.5</v>
       </c>
-      <c r="AR23" s="34">
+      <c r="AR23" s="26">
         <f t="shared" si="14"/>
         <v>39</v>
       </c>
-      <c r="AS23" s="34">
+      <c r="AS23" s="26">
         <f t="shared" si="15"/>
         <v>70</v>
       </c>
-      <c r="AT23" s="34">
+      <c r="AT23" s="26">
         <f t="shared" si="16"/>
         <v>49.5</v>
       </c>
-      <c r="AU23" s="35" t="str">
+      <c r="AU23" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C2</v>
       </c>
-      <c r="AV23" s="35" t="str">
+      <c r="AV23" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW23" s="35" t="str">
+      <c r="AW23" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="AX23" s="35" t="str">
+      <c r="AX23" s="27" t="str">
         <f t="shared" si="20"/>
         <v>D</v>
       </c>
-      <c r="AY23" s="35" t="str">
+      <c r="AY23" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B2</v>
       </c>
-      <c r="AZ23" s="35" t="str">
+      <c r="AZ23" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C2</v>
       </c>
-      <c r="BA23" s="36">
+      <c r="BA23" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -5202,7 +5205,7 @@
         <v>7088677723</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I24" s="7">
         <v>17</v>
@@ -5258,105 +5261,105 @@
       <c r="Z24" s="8">
         <v>18</v>
       </c>
-      <c r="AA24" s="40">
+      <c r="AA24" s="32">
         <v>48</v>
       </c>
-      <c r="AB24" s="40">
+      <c r="AB24" s="32">
         <v>42</v>
       </c>
-      <c r="AC24" s="41">
+      <c r="AC24" s="33">
         <v>38</v>
       </c>
-      <c r="AD24" s="41">
+      <c r="AD24" s="33">
         <v>47</v>
       </c>
-      <c r="AE24" s="41">
+      <c r="AE24" s="33">
         <v>63</v>
       </c>
       <c r="AF24" s="5">
         <v>39</v>
       </c>
-      <c r="AG24" s="33">
+      <c r="AG24" s="25">
         <f t="shared" si="0"/>
         <v>853</v>
       </c>
-      <c r="AH24" s="33">
+      <c r="AH24" s="25">
         <f t="shared" si="4"/>
         <v>71.099999999999994</v>
       </c>
-      <c r="AI24" s="34">
+      <c r="AI24" s="26">
         <f t="shared" si="5"/>
         <v>145</v>
       </c>
-      <c r="AJ24" s="34">
+      <c r="AJ24" s="26">
         <f t="shared" si="6"/>
         <v>124</v>
       </c>
-      <c r="AK24" s="34">
+      <c r="AK24" s="26">
         <f t="shared" si="7"/>
         <v>141</v>
       </c>
-      <c r="AL24" s="34">
+      <c r="AL24" s="26">
         <f t="shared" si="8"/>
         <v>136</v>
       </c>
-      <c r="AM24" s="34">
+      <c r="AM24" s="26">
         <f t="shared" si="9"/>
         <v>164</v>
       </c>
-      <c r="AN24" s="34">
+      <c r="AN24" s="26">
         <f t="shared" si="10"/>
         <v>143</v>
       </c>
-      <c r="AO24" s="34">
+      <c r="AO24" s="26">
         <f t="shared" si="11"/>
         <v>72.5</v>
       </c>
-      <c r="AP24" s="34">
+      <c r="AP24" s="26">
         <f t="shared" si="12"/>
         <v>62</v>
       </c>
-      <c r="AQ24" s="34">
+      <c r="AQ24" s="26">
         <f t="shared" si="13"/>
         <v>70.5</v>
       </c>
-      <c r="AR24" s="34">
+      <c r="AR24" s="26">
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="AS24" s="34">
+      <c r="AS24" s="26">
         <f t="shared" si="15"/>
         <v>82</v>
       </c>
-      <c r="AT24" s="34">
+      <c r="AT24" s="26">
         <f t="shared" si="16"/>
         <v>71.5</v>
       </c>
-      <c r="AU24" s="35" t="str">
+      <c r="AU24" s="27" t="str">
         <f t="shared" si="17"/>
         <v>B1</v>
       </c>
-      <c r="AV24" s="35" t="str">
+      <c r="AV24" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B2</v>
       </c>
-      <c r="AW24" s="35" t="str">
+      <c r="AW24" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B1</v>
       </c>
-      <c r="AX24" s="35" t="str">
+      <c r="AX24" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY24" s="35" t="str">
+      <c r="AY24" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="AZ24" s="35" t="str">
+      <c r="AZ24" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B1</v>
       </c>
-      <c r="BA24" s="36">
+      <c r="BA24" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -5383,7 +5386,7 @@
         <v>8192995129</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I25" s="7">
         <v>17</v>
@@ -5439,105 +5442,105 @@
       <c r="Z25" s="8">
         <v>18</v>
       </c>
-      <c r="AA25" s="40">
+      <c r="AA25" s="32">
         <v>27</v>
       </c>
-      <c r="AB25" s="40">
+      <c r="AB25" s="32">
         <v>22</v>
       </c>
-      <c r="AC25" s="41">
+      <c r="AC25" s="33">
         <v>37</v>
       </c>
-      <c r="AD25" s="41">
+      <c r="AD25" s="33">
         <v>27</v>
       </c>
-      <c r="AE25" s="41">
+      <c r="AE25" s="33">
         <v>55</v>
       </c>
       <c r="AF25" s="5">
         <v>24</v>
       </c>
-      <c r="AG25" s="33">
+      <c r="AG25" s="25">
         <f t="shared" si="0"/>
         <v>677</v>
       </c>
-      <c r="AH25" s="33">
+      <c r="AH25" s="25">
         <f t="shared" si="4"/>
         <v>56.4</v>
       </c>
-      <c r="AI25" s="34">
+      <c r="AI25" s="26">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="AJ25" s="34">
+      <c r="AJ25" s="26">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="AK25" s="34">
+      <c r="AK25" s="26">
         <f t="shared" si="7"/>
         <v>135</v>
       </c>
-      <c r="AL25" s="34">
+      <c r="AL25" s="26">
         <f t="shared" si="8"/>
         <v>113</v>
       </c>
-      <c r="AM25" s="34">
+      <c r="AM25" s="26">
         <f t="shared" si="9"/>
         <v>152</v>
       </c>
-      <c r="AN25" s="34">
+      <c r="AN25" s="26">
         <f t="shared" si="10"/>
         <v>104</v>
       </c>
-      <c r="AO25" s="34">
+      <c r="AO25" s="26">
         <f t="shared" si="11"/>
         <v>47.5</v>
       </c>
-      <c r="AP25" s="34">
+      <c r="AP25" s="26">
         <f t="shared" si="12"/>
         <v>39</v>
       </c>
-      <c r="AQ25" s="34">
+      <c r="AQ25" s="26">
         <f t="shared" si="13"/>
         <v>67.5</v>
       </c>
-      <c r="AR25" s="34">
+      <c r="AR25" s="26">
         <f t="shared" si="14"/>
         <v>56.5</v>
       </c>
-      <c r="AS25" s="34">
+      <c r="AS25" s="26">
         <f t="shared" si="15"/>
         <v>76</v>
       </c>
-      <c r="AT25" s="34">
+      <c r="AT25" s="26">
         <f t="shared" si="16"/>
         <v>52</v>
       </c>
-      <c r="AU25" s="35" t="str">
+      <c r="AU25" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C2</v>
       </c>
-      <c r="AV25" s="35" t="str">
+      <c r="AV25" s="27" t="str">
         <f t="shared" si="18"/>
         <v>D</v>
       </c>
-      <c r="AW25" s="35" t="str">
+      <c r="AW25" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B2</v>
       </c>
-      <c r="AX25" s="35" t="str">
+      <c r="AX25" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C1</v>
       </c>
-      <c r="AY25" s="35" t="str">
+      <c r="AY25" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ25" s="35" t="str">
+      <c r="AZ25" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C1</v>
       </c>
-      <c r="BA25" s="36">
+      <c r="BA25" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -5564,7 +5567,7 @@
         <v>7895188092</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I26" s="7">
         <v>18</v>
@@ -5620,105 +5623,105 @@
       <c r="Z26" s="8">
         <v>20</v>
       </c>
-      <c r="AA26" s="40">
+      <c r="AA26" s="32">
         <v>63</v>
       </c>
-      <c r="AB26" s="40">
+      <c r="AB26" s="32">
         <v>58</v>
       </c>
-      <c r="AC26" s="41">
+      <c r="AC26" s="33">
         <v>70</v>
       </c>
-      <c r="AD26" s="41">
+      <c r="AD26" s="33">
         <v>72</v>
       </c>
-      <c r="AE26" s="41">
+      <c r="AE26" s="33">
         <v>77</v>
       </c>
       <c r="AF26" s="5">
         <v>75</v>
       </c>
-      <c r="AG26" s="33">
+      <c r="AG26" s="25">
         <f t="shared" si="0"/>
         <v>1072</v>
       </c>
-      <c r="AH26" s="33">
+      <c r="AH26" s="25">
         <f t="shared" si="4"/>
         <v>89.3</v>
       </c>
-      <c r="AI26" s="34">
+      <c r="AI26" s="26">
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
-      <c r="AJ26" s="34">
+      <c r="AJ26" s="26">
         <f t="shared" si="6"/>
         <v>156</v>
       </c>
-      <c r="AK26" s="34">
+      <c r="AK26" s="26">
         <f t="shared" si="7"/>
         <v>187</v>
       </c>
-      <c r="AL26" s="34">
+      <c r="AL26" s="26">
         <f t="shared" si="8"/>
         <v>185</v>
       </c>
-      <c r="AM26" s="34">
+      <c r="AM26" s="26">
         <f t="shared" si="9"/>
         <v>184</v>
       </c>
-      <c r="AN26" s="34">
+      <c r="AN26" s="26">
         <f t="shared" si="10"/>
         <v>192</v>
       </c>
-      <c r="AO26" s="34">
+      <c r="AO26" s="26">
         <f t="shared" si="11"/>
         <v>84</v>
       </c>
-      <c r="AP26" s="34">
+      <c r="AP26" s="26">
         <f t="shared" si="12"/>
         <v>78</v>
       </c>
-      <c r="AQ26" s="34">
+      <c r="AQ26" s="26">
         <f t="shared" si="13"/>
         <v>93.5</v>
       </c>
-      <c r="AR26" s="34">
+      <c r="AR26" s="26">
         <f t="shared" si="14"/>
         <v>92.5</v>
       </c>
-      <c r="AS26" s="34">
+      <c r="AS26" s="26">
         <f t="shared" si="15"/>
         <v>92</v>
       </c>
-      <c r="AT26" s="34">
+      <c r="AT26" s="26">
         <f t="shared" si="16"/>
         <v>96</v>
       </c>
-      <c r="AU26" s="35" t="str">
+      <c r="AU26" s="27" t="str">
         <f t="shared" si="17"/>
         <v>A2</v>
       </c>
-      <c r="AV26" s="35" t="str">
+      <c r="AV26" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B1</v>
       </c>
-      <c r="AW26" s="35" t="str">
+      <c r="AW26" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A1</v>
       </c>
-      <c r="AX26" s="35" t="str">
+      <c r="AX26" s="27" t="str">
         <f t="shared" si="20"/>
         <v>A1</v>
       </c>
-      <c r="AY26" s="35" t="str">
+      <c r="AY26" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A1</v>
       </c>
-      <c r="AZ26" s="35" t="str">
+      <c r="AZ26" s="27" t="str">
         <f t="shared" si="22"/>
         <v>A1</v>
       </c>
-      <c r="BA26" s="36">
+      <c r="BA26" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -5745,7 +5748,7 @@
         <v>7906184880</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I27" s="7">
         <v>16</v>
@@ -5801,105 +5804,105 @@
       <c r="Z27" s="8">
         <v>18</v>
       </c>
-      <c r="AA27" s="40">
+      <c r="AA27" s="32">
         <v>68</v>
       </c>
-      <c r="AB27" s="40">
+      <c r="AB27" s="32">
         <v>76</v>
       </c>
-      <c r="AC27" s="41">
+      <c r="AC27" s="33">
         <v>74</v>
       </c>
-      <c r="AD27" s="41">
+      <c r="AD27" s="33">
         <v>65</v>
       </c>
-      <c r="AE27" s="41">
+      <c r="AE27" s="33">
         <v>76</v>
       </c>
       <c r="AF27" s="5">
         <v>76</v>
       </c>
-      <c r="AG27" s="33">
+      <c r="AG27" s="25">
         <f t="shared" si="0"/>
         <v>898</v>
       </c>
-      <c r="AH27" s="33">
+      <c r="AH27" s="25">
         <f t="shared" si="4"/>
         <v>74.8</v>
       </c>
-      <c r="AI27" s="34">
+      <c r="AI27" s="26">
         <f t="shared" si="5"/>
         <v>138</v>
       </c>
-      <c r="AJ27" s="34">
+      <c r="AJ27" s="26">
         <f t="shared" si="6"/>
         <v>159</v>
       </c>
-      <c r="AK27" s="34">
+      <c r="AK27" s="26">
         <f t="shared" si="7"/>
         <v>165</v>
       </c>
-      <c r="AL27" s="34">
+      <c r="AL27" s="26">
         <f t="shared" si="8"/>
         <v>146</v>
       </c>
-      <c r="AM27" s="34">
+      <c r="AM27" s="26">
         <f t="shared" si="9"/>
         <v>148</v>
       </c>
-      <c r="AN27" s="34">
+      <c r="AN27" s="26">
         <f t="shared" si="10"/>
         <v>142</v>
       </c>
-      <c r="AO27" s="34">
+      <c r="AO27" s="26">
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="AP27" s="34">
+      <c r="AP27" s="26">
         <f t="shared" si="12"/>
         <v>79.5</v>
       </c>
-      <c r="AQ27" s="34">
+      <c r="AQ27" s="26">
         <f t="shared" si="13"/>
         <v>82.5</v>
       </c>
-      <c r="AR27" s="34">
+      <c r="AR27" s="26">
         <f t="shared" si="14"/>
         <v>73</v>
       </c>
-      <c r="AS27" s="34">
+      <c r="AS27" s="26">
         <f t="shared" si="15"/>
         <v>74</v>
       </c>
-      <c r="AT27" s="34">
+      <c r="AT27" s="26">
         <f t="shared" si="16"/>
         <v>71</v>
       </c>
-      <c r="AU27" s="35" t="str">
+      <c r="AU27" s="27" t="str">
         <f t="shared" si="17"/>
         <v>B2</v>
       </c>
-      <c r="AV27" s="35" t="str">
+      <c r="AV27" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B1</v>
       </c>
-      <c r="AW27" s="35" t="str">
+      <c r="AW27" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A2</v>
       </c>
-      <c r="AX27" s="35" t="str">
+      <c r="AX27" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B1</v>
       </c>
-      <c r="AY27" s="35" t="str">
+      <c r="AY27" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ27" s="35" t="str">
+      <c r="AZ27" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B1</v>
       </c>
-      <c r="BA27" s="36">
+      <c r="BA27" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -5982,105 +5985,105 @@
       <c r="Z28" s="8">
         <v>19</v>
       </c>
-      <c r="AA28" s="40">
+      <c r="AA28" s="32">
         <v>40</v>
       </c>
-      <c r="AB28" s="40">
+      <c r="AB28" s="32">
         <v>48</v>
       </c>
-      <c r="AC28" s="41">
+      <c r="AC28" s="33">
         <v>37</v>
       </c>
-      <c r="AD28" s="41">
+      <c r="AD28" s="33">
         <v>42</v>
       </c>
-      <c r="AE28" s="41">
+      <c r="AE28" s="33">
         <v>66</v>
       </c>
       <c r="AF28" s="5">
         <v>52</v>
       </c>
-      <c r="AG28" s="33">
+      <c r="AG28" s="25">
         <f t="shared" si="0"/>
         <v>806</v>
       </c>
-      <c r="AH28" s="33">
+      <c r="AH28" s="25">
         <f t="shared" si="4"/>
         <v>67.2</v>
       </c>
-      <c r="AI28" s="34">
+      <c r="AI28" s="26">
         <f t="shared" si="5"/>
         <v>121</v>
       </c>
-      <c r="AJ28" s="34">
+      <c r="AJ28" s="26">
         <f t="shared" si="6"/>
         <v>122</v>
       </c>
-      <c r="AK28" s="34">
+      <c r="AK28" s="26">
         <f t="shared" si="7"/>
         <v>127</v>
       </c>
-      <c r="AL28" s="34">
+      <c r="AL28" s="26">
         <f t="shared" si="8"/>
         <v>137</v>
       </c>
-      <c r="AM28" s="34">
+      <c r="AM28" s="26">
         <f t="shared" si="9"/>
         <v>168</v>
       </c>
-      <c r="AN28" s="34">
+      <c r="AN28" s="26">
         <f t="shared" si="10"/>
         <v>131</v>
       </c>
-      <c r="AO28" s="34">
+      <c r="AO28" s="26">
         <f t="shared" si="11"/>
         <v>60.5</v>
       </c>
-      <c r="AP28" s="34">
+      <c r="AP28" s="26">
         <f t="shared" si="12"/>
         <v>61</v>
       </c>
-      <c r="AQ28" s="34">
+      <c r="AQ28" s="26">
         <f t="shared" si="13"/>
         <v>63.5</v>
       </c>
-      <c r="AR28" s="34">
+      <c r="AR28" s="26">
         <f t="shared" si="14"/>
         <v>68.5</v>
       </c>
-      <c r="AS28" s="34">
+      <c r="AS28" s="26">
         <f t="shared" si="15"/>
         <v>84</v>
       </c>
-      <c r="AT28" s="34">
+      <c r="AT28" s="26">
         <f t="shared" si="16"/>
         <v>65.5</v>
       </c>
-      <c r="AU28" s="35" t="str">
+      <c r="AU28" s="27" t="str">
         <f t="shared" si="17"/>
         <v>B2</v>
       </c>
-      <c r="AV28" s="35" t="str">
+      <c r="AV28" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B2</v>
       </c>
-      <c r="AW28" s="35" t="str">
+      <c r="AW28" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B2</v>
       </c>
-      <c r="AX28" s="35" t="str">
+      <c r="AX28" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY28" s="35" t="str">
+      <c r="AY28" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="AZ28" s="35" t="str">
+      <c r="AZ28" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B2</v>
       </c>
-      <c r="BA28" s="36">
+      <c r="BA28" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -6107,161 +6110,161 @@
         <v>8171816298</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="I29" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="I29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="42" t="s">
+      <c r="J29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="42" t="s">
+      <c r="K29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="42" t="s">
+      <c r="L29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="42" t="s">
+      <c r="M29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="42" t="s">
+      <c r="N29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="42" t="s">
+      <c r="O29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="P29" s="42" t="s">
+      <c r="P29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Q29" s="42" t="s">
+      <c r="Q29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="42" t="s">
+      <c r="R29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S29" s="42" t="s">
+      <c r="S29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="T29" s="42" t="s">
+      <c r="T29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="U29" s="42" t="s">
+      <c r="U29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="V29" s="42" t="s">
+      <c r="V29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="W29" s="8">
-        <v>17</v>
-      </c>
-      <c r="X29" s="42" t="s">
+      <c r="W29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Y29" s="42" t="s">
+      <c r="X29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Z29" s="42" t="s">
+      <c r="Y29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AA29" s="40">
+      <c r="Z29" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA29" s="32">
         <v>12</v>
       </c>
-      <c r="AB29" s="40">
+      <c r="AB29" s="32">
         <v>13</v>
       </c>
-      <c r="AC29" s="41">
+      <c r="AC29" s="33">
         <v>28</v>
       </c>
-      <c r="AD29" s="41">
+      <c r="AD29" s="33">
         <v>16</v>
       </c>
-      <c r="AE29" s="41">
+      <c r="AE29" s="33">
         <v>49</v>
       </c>
       <c r="AF29" s="5">
         <v>2</v>
       </c>
-      <c r="AG29" s="33">
+      <c r="AG29" s="25">
         <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="AH29" s="33">
+        <v>120</v>
+      </c>
+      <c r="AH29" s="25">
         <f t="shared" si="4"/>
-        <v>11.4</v>
-      </c>
-      <c r="AI29" s="34">
+        <v>10</v>
+      </c>
+      <c r="AI29" s="26">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="AJ29" s="34">
+      <c r="AJ29" s="26">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="AK29" s="34">
+      <c r="AK29" s="26">
         <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="AL29" s="34">
+        <v>28</v>
+      </c>
+      <c r="AL29" s="26">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="AM29" s="34">
+      <c r="AM29" s="26">
         <f t="shared" si="9"/>
         <v>49</v>
       </c>
-      <c r="AN29" s="34">
+      <c r="AN29" s="26">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AO29" s="34">
+      <c r="AO29" s="26">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="AP29" s="34">
+      <c r="AP29" s="26">
         <f t="shared" si="12"/>
         <v>6.5</v>
       </c>
-      <c r="AQ29" s="34">
+      <c r="AQ29" s="26">
         <f t="shared" si="13"/>
-        <v>22.5</v>
-      </c>
-      <c r="AR29" s="34">
+        <v>14</v>
+      </c>
+      <c r="AR29" s="26">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="AS29" s="34">
+      <c r="AS29" s="26">
         <f t="shared" si="15"/>
         <v>24.5</v>
       </c>
-      <c r="AT29" s="34">
+      <c r="AT29" s="26">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AU29" s="35" t="str">
+      <c r="AU29" s="27" t="str">
         <f t="shared" si="17"/>
         <v>E</v>
       </c>
-      <c r="AV29" s="35" t="str">
+      <c r="AV29" s="27" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
-      <c r="AW29" s="35" t="str">
+      <c r="AW29" s="27" t="str">
         <f t="shared" si="19"/>
         <v>E</v>
       </c>
-      <c r="AX29" s="35" t="str">
+      <c r="AX29" s="27" t="str">
         <f t="shared" si="20"/>
         <v>E</v>
       </c>
-      <c r="AY29" s="35" t="str">
+      <c r="AY29" s="27" t="str">
         <f t="shared" si="21"/>
         <v>E</v>
       </c>
-      <c r="AZ29" s="35" t="str">
+      <c r="AZ29" s="27" t="str">
         <f t="shared" si="22"/>
         <v>E</v>
       </c>
-      <c r="BA29" s="36">
+      <c r="BA29" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -6299,7 +6302,7 @@
       <c r="K30" s="7">
         <v>16</v>
       </c>
-      <c r="L30" s="42" t="s">
+      <c r="L30" s="34" t="s">
         <v>31</v>
       </c>
       <c r="M30" s="7">
@@ -6317,7 +6320,7 @@
       <c r="Q30" s="7">
         <v>40</v>
       </c>
-      <c r="R30" s="42" t="s">
+      <c r="R30" s="34" t="s">
         <v>31</v>
       </c>
       <c r="S30" s="8">
@@ -6344,105 +6347,105 @@
       <c r="Z30" s="8">
         <v>19</v>
       </c>
-      <c r="AA30" s="40">
+      <c r="AA30" s="32">
         <v>41</v>
       </c>
-      <c r="AB30" s="40">
+      <c r="AB30" s="32">
         <v>41</v>
       </c>
-      <c r="AC30" s="41">
+      <c r="AC30" s="33">
         <v>43</v>
       </c>
-      <c r="AD30" s="41">
+      <c r="AD30" s="33">
         <v>33</v>
       </c>
-      <c r="AE30" s="41">
+      <c r="AE30" s="33">
         <v>69</v>
       </c>
       <c r="AF30" s="5">
         <v>33</v>
       </c>
-      <c r="AG30" s="33">
+      <c r="AG30" s="25">
         <f t="shared" si="0"/>
         <v>611</v>
       </c>
-      <c r="AH30" s="33">
+      <c r="AH30" s="25">
         <f t="shared" si="4"/>
         <v>50.9</v>
       </c>
-      <c r="AI30" s="34">
+      <c r="AI30" s="26">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="AJ30" s="34">
+      <c r="AJ30" s="26">
         <f t="shared" si="6"/>
         <v>113</v>
       </c>
-      <c r="AK30" s="34">
+      <c r="AK30" s="26">
         <f t="shared" si="7"/>
         <v>116</v>
       </c>
-      <c r="AL30" s="34">
+      <c r="AL30" s="26">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
-      <c r="AM30" s="34">
+      <c r="AM30" s="26">
         <f t="shared" si="9"/>
         <v>146</v>
       </c>
-      <c r="AN30" s="34">
+      <c r="AN30" s="26">
         <f t="shared" si="10"/>
         <v>95</v>
       </c>
-      <c r="AO30" s="34">
+      <c r="AO30" s="26">
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
-      <c r="AP30" s="34">
+      <c r="AP30" s="26">
         <f t="shared" si="12"/>
         <v>56.5</v>
       </c>
-      <c r="AQ30" s="34">
+      <c r="AQ30" s="26">
         <f t="shared" si="13"/>
         <v>58</v>
       </c>
-      <c r="AR30" s="34">
+      <c r="AR30" s="26">
         <f t="shared" si="14"/>
         <v>25.5</v>
       </c>
-      <c r="AS30" s="34">
+      <c r="AS30" s="26">
         <f t="shared" si="15"/>
         <v>73</v>
       </c>
-      <c r="AT30" s="34">
+      <c r="AT30" s="26">
         <f t="shared" si="16"/>
         <v>47.5</v>
       </c>
-      <c r="AU30" s="35" t="str">
+      <c r="AU30" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C2</v>
       </c>
-      <c r="AV30" s="35" t="str">
+      <c r="AV30" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW30" s="35" t="str">
+      <c r="AW30" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="AX30" s="35" t="str">
+      <c r="AX30" s="27" t="str">
         <f t="shared" si="20"/>
         <v>E</v>
       </c>
-      <c r="AY30" s="35" t="str">
+      <c r="AY30" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ30" s="35" t="str">
+      <c r="AZ30" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C2</v>
       </c>
-      <c r="BA30" s="36">
+      <c r="BA30" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -6469,7 +6472,7 @@
         <v>8979013092</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I31" s="7">
         <v>20</v>
@@ -6525,105 +6528,105 @@
       <c r="Z31" s="8">
         <v>18</v>
       </c>
-      <c r="AA31" s="40">
+      <c r="AA31" s="32">
         <v>48</v>
       </c>
-      <c r="AB31" s="40">
+      <c r="AB31" s="32">
         <v>42</v>
       </c>
-      <c r="AC31" s="41">
+      <c r="AC31" s="33">
         <v>50</v>
       </c>
-      <c r="AD31" s="41">
+      <c r="AD31" s="33">
         <v>67</v>
       </c>
-      <c r="AE31" s="41">
+      <c r="AE31" s="33">
         <v>74</v>
       </c>
       <c r="AF31" s="5">
         <v>59</v>
       </c>
-      <c r="AG31" s="33">
+      <c r="AG31" s="25">
         <f t="shared" si="0"/>
         <v>971</v>
       </c>
-      <c r="AH31" s="33">
+      <c r="AH31" s="25">
         <f t="shared" si="4"/>
         <v>80.900000000000006</v>
       </c>
-      <c r="AI31" s="34">
+      <c r="AI31" s="26">
         <f t="shared" si="5"/>
         <v>148</v>
       </c>
-      <c r="AJ31" s="34">
+      <c r="AJ31" s="26">
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="AK31" s="34">
+      <c r="AK31" s="26">
         <f t="shared" si="7"/>
         <v>167</v>
       </c>
-      <c r="AL31" s="34">
+      <c r="AL31" s="26">
         <f t="shared" si="8"/>
         <v>173</v>
       </c>
-      <c r="AM31" s="34">
+      <c r="AM31" s="26">
         <f t="shared" si="9"/>
         <v>181</v>
       </c>
-      <c r="AN31" s="34">
+      <c r="AN31" s="26">
         <f t="shared" si="10"/>
         <v>162</v>
       </c>
-      <c r="AO31" s="34">
+      <c r="AO31" s="26">
         <f t="shared" si="11"/>
         <v>74</v>
       </c>
-      <c r="AP31" s="34">
+      <c r="AP31" s="26">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="AQ31" s="34">
+      <c r="AQ31" s="26">
         <f t="shared" si="13"/>
         <v>83.5</v>
       </c>
-      <c r="AR31" s="34">
+      <c r="AR31" s="26">
         <f t="shared" si="14"/>
         <v>86.5</v>
       </c>
-      <c r="AS31" s="34">
+      <c r="AS31" s="26">
         <f t="shared" si="15"/>
         <v>90.5</v>
       </c>
-      <c r="AT31" s="34">
+      <c r="AT31" s="26">
         <f t="shared" si="16"/>
         <v>81</v>
       </c>
-      <c r="AU31" s="35" t="str">
+      <c r="AU31" s="27" t="str">
         <f t="shared" si="17"/>
         <v>B1</v>
       </c>
-      <c r="AV31" s="35" t="str">
+      <c r="AV31" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B2</v>
       </c>
-      <c r="AW31" s="35" t="str">
+      <c r="AW31" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A2</v>
       </c>
-      <c r="AX31" s="35" t="str">
+      <c r="AX31" s="27" t="str">
         <f t="shared" si="20"/>
         <v>A2</v>
       </c>
-      <c r="AY31" s="35" t="str">
+      <c r="AY31" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A1</v>
       </c>
-      <c r="AZ31" s="35" t="str">
+      <c r="AZ31" s="27" t="str">
         <f t="shared" si="22"/>
         <v>A2</v>
       </c>
-      <c r="BA31" s="36">
+      <c r="BA31" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -6667,144 +6670,144 @@
       <c r="M32" s="7">
         <v>16</v>
       </c>
-      <c r="N32" s="42" t="s">
+      <c r="N32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="42" t="s">
+      <c r="O32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="P32" s="42" t="s">
+      <c r="P32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Q32" s="42" t="s">
+      <c r="Q32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="R32" s="42" t="s">
+      <c r="R32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S32" s="42" t="s">
+      <c r="S32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="T32" s="42" t="s">
+      <c r="T32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="42" t="s">
+      <c r="U32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="V32" s="42" t="s">
+      <c r="V32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="W32" s="42" t="s">
+      <c r="W32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="X32" s="42" t="s">
+      <c r="X32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Y32" s="42" t="s">
+      <c r="Y32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Z32" s="42" t="s">
+      <c r="Z32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AA32" s="43" t="s">
+      <c r="AA32" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="AB32" s="43" t="s">
+      <c r="AB32" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="AC32" s="44" t="s">
+      <c r="AC32" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AD32" s="44" t="s">
+      <c r="AD32" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AE32" s="44" t="s">
+      <c r="AE32" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AF32" s="45" t="s">
+      <c r="AF32" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AG32" s="33">
+      <c r="AG32" s="25">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="AH32" s="33">
+      <c r="AH32" s="25">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="AI32" s="34">
+      <c r="AI32" s="26">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="AJ32" s="34">
+      <c r="AJ32" s="26">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="AK32" s="34">
+      <c r="AK32" s="26">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="AL32" s="34">
+      <c r="AL32" s="26">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="AM32" s="34">
+      <c r="AM32" s="26">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="AN32" s="34">
+      <c r="AN32" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO32" s="34">
+      <c r="AO32" s="26">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="AP32" s="34">
+      <c r="AP32" s="26">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="AQ32" s="34">
+      <c r="AQ32" s="26">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="AR32" s="34">
+      <c r="AR32" s="26">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="AS32" s="34">
+      <c r="AS32" s="26">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="AT32" s="34">
+      <c r="AT32" s="26">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU32" s="35" t="str">
+      <c r="AU32" s="27" t="str">
         <f t="shared" si="17"/>
         <v>E</v>
       </c>
-      <c r="AV32" s="35" t="str">
+      <c r="AV32" s="27" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
-      <c r="AW32" s="35" t="str">
+      <c r="AW32" s="27" t="str">
         <f t="shared" si="19"/>
         <v>E</v>
       </c>
-      <c r="AX32" s="35" t="str">
+      <c r="AX32" s="27" t="str">
         <f t="shared" si="20"/>
         <v>E</v>
       </c>
-      <c r="AY32" s="35" t="str">
+      <c r="AY32" s="27" t="str">
         <f t="shared" si="21"/>
         <v>E</v>
       </c>
-      <c r="AZ32" s="35" t="str">
+      <c r="AZ32" s="27" t="str">
         <f t="shared" si="22"/>
         <v>E</v>
       </c>
-      <c r="BA32" s="36">
+      <c r="BA32" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -6887,105 +6890,105 @@
       <c r="Z33" s="8">
         <v>15</v>
       </c>
-      <c r="AA33" s="40">
+      <c r="AA33" s="32">
         <v>27</v>
       </c>
-      <c r="AB33" s="40">
+      <c r="AB33" s="32">
         <v>9</v>
       </c>
-      <c r="AC33" s="41">
+      <c r="AC33" s="33">
         <v>20</v>
       </c>
-      <c r="AD33" s="41">
+      <c r="AD33" s="33">
         <v>20</v>
       </c>
-      <c r="AE33" s="41">
+      <c r="AE33" s="33">
         <v>38</v>
       </c>
       <c r="AF33" s="5">
         <v>10</v>
       </c>
-      <c r="AG33" s="33">
+      <c r="AG33" s="25">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="AH33" s="33">
+      <c r="AH33" s="25">
         <f t="shared" si="4"/>
         <v>39.200000000000003</v>
       </c>
-      <c r="AI33" s="34">
+      <c r="AI33" s="26">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="AJ33" s="34">
+      <c r="AJ33" s="26">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="AK33" s="34">
+      <c r="AK33" s="26">
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="AL33" s="34">
+      <c r="AL33" s="26">
         <f t="shared" si="8"/>
         <v>89</v>
       </c>
-      <c r="AM33" s="34">
+      <c r="AM33" s="26">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="AN33" s="34">
+      <c r="AN33" s="26">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="AO33" s="34">
+      <c r="AO33" s="26">
         <f t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="AP33" s="34">
+      <c r="AP33" s="26">
         <f t="shared" si="12"/>
         <v>29.5</v>
       </c>
-      <c r="AQ33" s="34">
+      <c r="AQ33" s="26">
         <f t="shared" si="13"/>
         <v>43</v>
       </c>
-      <c r="AR33" s="34">
+      <c r="AR33" s="26">
         <f t="shared" si="14"/>
         <v>44.5</v>
       </c>
-      <c r="AS33" s="34">
+      <c r="AS33" s="26">
         <f t="shared" si="15"/>
         <v>49.5</v>
       </c>
-      <c r="AT33" s="34">
+      <c r="AT33" s="26">
         <f t="shared" si="16"/>
         <v>34.5</v>
       </c>
-      <c r="AU33" s="35" t="str">
+      <c r="AU33" s="27" t="str">
         <f t="shared" si="17"/>
         <v>D</v>
       </c>
-      <c r="AV33" s="35" t="str">
+      <c r="AV33" s="27" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
-      <c r="AW33" s="35" t="str">
+      <c r="AW33" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C2</v>
       </c>
-      <c r="AX33" s="35" t="str">
+      <c r="AX33" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C2</v>
       </c>
-      <c r="AY33" s="35" t="str">
+      <c r="AY33" s="27" t="str">
         <f t="shared" si="21"/>
         <v>C2</v>
       </c>
-      <c r="AZ33" s="35" t="str">
+      <c r="AZ33" s="27" t="str">
         <f t="shared" si="22"/>
         <v>D</v>
       </c>
-      <c r="BA33" s="36">
+      <c r="BA33" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -7068,105 +7071,105 @@
       <c r="Z34" s="8">
         <v>17</v>
       </c>
-      <c r="AA34" s="40">
+      <c r="AA34" s="32">
         <v>38</v>
       </c>
-      <c r="AB34" s="40">
+      <c r="AB34" s="32">
         <v>23</v>
       </c>
-      <c r="AC34" s="41">
+      <c r="AC34" s="33">
         <v>34</v>
       </c>
-      <c r="AD34" s="41">
+      <c r="AD34" s="33">
         <v>33</v>
       </c>
-      <c r="AE34" s="41">
+      <c r="AE34" s="33">
         <v>59</v>
       </c>
       <c r="AF34" s="5">
         <v>18</v>
       </c>
-      <c r="AG34" s="33">
+      <c r="AG34" s="25">
         <f t="shared" si="0"/>
         <v>646</v>
       </c>
-      <c r="AH34" s="33">
+      <c r="AH34" s="25">
         <f t="shared" si="4"/>
         <v>53.8</v>
       </c>
-      <c r="AI34" s="34">
+      <c r="AI34" s="26">
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="AJ34" s="34">
+      <c r="AJ34" s="26">
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="AK34" s="34">
+      <c r="AK34" s="26">
         <f t="shared" si="7"/>
         <v>108</v>
       </c>
-      <c r="AL34" s="34">
+      <c r="AL34" s="26">
         <f t="shared" si="8"/>
         <v>117</v>
       </c>
-      <c r="AM34" s="34">
+      <c r="AM34" s="26">
         <f t="shared" si="9"/>
         <v>146</v>
       </c>
-      <c r="AN34" s="34">
+      <c r="AN34" s="26">
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
-      <c r="AO34" s="34">
+      <c r="AO34" s="26">
         <f t="shared" si="11"/>
         <v>54</v>
       </c>
-      <c r="AP34" s="34">
+      <c r="AP34" s="26">
         <f t="shared" si="12"/>
         <v>41</v>
       </c>
-      <c r="AQ34" s="34">
+      <c r="AQ34" s="26">
         <f t="shared" si="13"/>
         <v>54</v>
       </c>
-      <c r="AR34" s="34">
+      <c r="AR34" s="26">
         <f t="shared" si="14"/>
         <v>58.5</v>
       </c>
-      <c r="AS34" s="34">
+      <c r="AS34" s="26">
         <f t="shared" si="15"/>
         <v>73</v>
       </c>
-      <c r="AT34" s="34">
+      <c r="AT34" s="26">
         <f t="shared" si="16"/>
         <v>42.5</v>
       </c>
-      <c r="AU34" s="35" t="str">
+      <c r="AU34" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV34" s="35" t="str">
+      <c r="AV34" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW34" s="35" t="str">
+      <c r="AW34" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="AX34" s="35" t="str">
+      <c r="AX34" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C1</v>
       </c>
-      <c r="AY34" s="35" t="str">
+      <c r="AY34" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ34" s="35" t="str">
+      <c r="AZ34" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C2</v>
       </c>
-      <c r="BA34" s="36">
+      <c r="BA34" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -7249,105 +7252,105 @@
       <c r="Z35" s="8">
         <v>15</v>
       </c>
-      <c r="AA35" s="40">
+      <c r="AA35" s="32">
         <v>29</v>
       </c>
-      <c r="AB35" s="40">
+      <c r="AB35" s="32">
         <v>44</v>
       </c>
-      <c r="AC35" s="41">
+      <c r="AC35" s="33">
         <v>23</v>
       </c>
-      <c r="AD35" s="41">
+      <c r="AD35" s="33">
         <v>27</v>
       </c>
-      <c r="AE35" s="41">
+      <c r="AE35" s="33">
         <v>56</v>
       </c>
       <c r="AF35" s="5">
         <v>21</v>
       </c>
-      <c r="AG35" s="33">
+      <c r="AG35" s="25">
         <f t="shared" si="0"/>
         <v>664</v>
       </c>
-      <c r="AH35" s="33">
+      <c r="AH35" s="25">
         <f t="shared" si="4"/>
         <v>55.3</v>
       </c>
-      <c r="AI35" s="34">
+      <c r="AI35" s="26">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="AJ35" s="34">
+      <c r="AJ35" s="26">
         <f t="shared" si="6"/>
         <v>113</v>
       </c>
-      <c r="AK35" s="34">
+      <c r="AK35" s="26">
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="AL35" s="34">
+      <c r="AL35" s="26">
         <f t="shared" si="8"/>
         <v>119</v>
       </c>
-      <c r="AM35" s="34">
+      <c r="AM35" s="26">
         <f t="shared" si="9"/>
         <v>151</v>
       </c>
-      <c r="AN35" s="34">
+      <c r="AN35" s="26">
         <f t="shared" si="10"/>
         <v>91</v>
       </c>
-      <c r="AO35" s="34">
+      <c r="AO35" s="26">
         <f t="shared" si="11"/>
         <v>47.5</v>
       </c>
-      <c r="AP35" s="34">
+      <c r="AP35" s="26">
         <f t="shared" si="12"/>
         <v>56.5</v>
       </c>
-      <c r="AQ35" s="34">
+      <c r="AQ35" s="26">
         <f t="shared" si="13"/>
         <v>47.5</v>
       </c>
-      <c r="AR35" s="34">
+      <c r="AR35" s="26">
         <f t="shared" si="14"/>
         <v>59.5</v>
       </c>
-      <c r="AS35" s="34">
+      <c r="AS35" s="26">
         <f t="shared" si="15"/>
         <v>75.5</v>
       </c>
-      <c r="AT35" s="34">
+      <c r="AT35" s="26">
         <f t="shared" si="16"/>
         <v>45.5</v>
       </c>
-      <c r="AU35" s="35" t="str">
+      <c r="AU35" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C2</v>
       </c>
-      <c r="AV35" s="35" t="str">
+      <c r="AV35" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW35" s="35" t="str">
+      <c r="AW35" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C2</v>
       </c>
-      <c r="AX35" s="35" t="str">
+      <c r="AX35" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C1</v>
       </c>
-      <c r="AY35" s="35" t="str">
+      <c r="AY35" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ35" s="35" t="str">
+      <c r="AZ35" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C2</v>
       </c>
-      <c r="BA35" s="36">
+      <c r="BA35" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -7430,105 +7433,105 @@
       <c r="Z36" s="8">
         <v>19</v>
       </c>
-      <c r="AA36" s="40">
+      <c r="AA36" s="32">
         <v>64</v>
       </c>
-      <c r="AB36" s="40">
+      <c r="AB36" s="32">
         <v>59</v>
       </c>
-      <c r="AC36" s="41">
+      <c r="AC36" s="33">
         <v>54</v>
       </c>
-      <c r="AD36" s="41">
+      <c r="AD36" s="33">
         <v>55</v>
       </c>
-      <c r="AE36" s="41">
+      <c r="AE36" s="33">
         <v>76</v>
       </c>
       <c r="AF36" s="5">
         <v>60</v>
       </c>
-      <c r="AG36" s="33">
+      <c r="AG36" s="25">
         <f t="shared" si="0"/>
         <v>953</v>
       </c>
-      <c r="AH36" s="33">
+      <c r="AH36" s="25">
         <f t="shared" si="4"/>
         <v>79.400000000000006</v>
       </c>
-      <c r="AI36" s="34">
+      <c r="AI36" s="26">
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
-      <c r="AJ36" s="34">
+      <c r="AJ36" s="26">
         <f t="shared" si="6"/>
         <v>134</v>
       </c>
-      <c r="AK36" s="34">
+      <c r="AK36" s="26">
         <f t="shared" si="7"/>
         <v>166</v>
       </c>
-      <c r="AL36" s="34">
+      <c r="AL36" s="26">
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="AM36" s="34">
+      <c r="AM36" s="26">
         <f t="shared" si="9"/>
         <v>184</v>
       </c>
-      <c r="AN36" s="34">
+      <c r="AN36" s="26">
         <f t="shared" si="10"/>
         <v>151</v>
       </c>
-      <c r="AO36" s="34">
+      <c r="AO36" s="26">
         <f t="shared" si="11"/>
         <v>81.5</v>
       </c>
-      <c r="AP36" s="34">
+      <c r="AP36" s="26">
         <f t="shared" si="12"/>
         <v>67</v>
       </c>
-      <c r="AQ36" s="34">
+      <c r="AQ36" s="26">
         <f t="shared" si="13"/>
         <v>83</v>
       </c>
-      <c r="AR36" s="34">
+      <c r="AR36" s="26">
         <f t="shared" si="14"/>
         <v>77.5</v>
       </c>
-      <c r="AS36" s="34">
+      <c r="AS36" s="26">
         <f t="shared" si="15"/>
         <v>92</v>
       </c>
-      <c r="AT36" s="34">
+      <c r="AT36" s="26">
         <f t="shared" si="16"/>
         <v>75.5</v>
       </c>
-      <c r="AU36" s="35" t="str">
+      <c r="AU36" s="27" t="str">
         <f t="shared" si="17"/>
         <v>A2</v>
       </c>
-      <c r="AV36" s="35" t="str">
+      <c r="AV36" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B2</v>
       </c>
-      <c r="AW36" s="35" t="str">
+      <c r="AW36" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A2</v>
       </c>
-      <c r="AX36" s="35" t="str">
+      <c r="AX36" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B1</v>
       </c>
-      <c r="AY36" s="35" t="str">
+      <c r="AY36" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A1</v>
       </c>
-      <c r="AZ36" s="35" t="str">
+      <c r="AZ36" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B1</v>
       </c>
-      <c r="BA36" s="36">
+      <c r="BA36" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -7553,72 +7556,72 @@
         <v>7247881583</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="I37" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="K37" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="N37" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="O37" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="P37" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q37" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="R37" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="S37" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="T37" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="U37" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="M37" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="N37" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="O37" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="P37" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q37" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="R37" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="S37" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="T37" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="U37" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="V37" s="42" t="s">
+      <c r="V37" s="34" t="s">
         <v>31</v>
       </c>
       <c r="W37" s="8">
         <v>16</v>
       </c>
-      <c r="X37" s="42" t="s">
+      <c r="X37" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Y37" s="42" t="s">
+      <c r="Y37" s="34" t="s">
         <v>31</v>
       </c>
       <c r="Z37" s="8">
         <v>14</v>
       </c>
-      <c r="AA37" s="40">
+      <c r="AA37" s="32">
         <v>35</v>
       </c>
-      <c r="AB37" s="40">
+      <c r="AB37" s="32">
         <v>16</v>
       </c>
-      <c r="AC37" s="41">
+      <c r="AC37" s="33">
         <v>29</v>
       </c>
-      <c r="AD37" s="41">
+      <c r="AD37" s="33">
         <v>21</v>
       </c>
       <c r="AE37" s="10">
@@ -7627,87 +7630,87 @@
       <c r="AF37" s="5">
         <v>22</v>
       </c>
-      <c r="AG37" s="33">
+      <c r="AG37" s="25">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="AH37" s="33">
-        <f t="shared" si="4"/>
-        <v>17.2</v>
-      </c>
-      <c r="AI37" s="34">
+      <c r="AH37" s="25">
+        <f>ROUND((AG37/600*100),1)</f>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AI37" s="26">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="AJ37" s="34">
+      <c r="AJ37" s="26">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="AK37" s="34">
+      <c r="AK37" s="26">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="AL37" s="34">
+      <c r="AL37" s="26">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="AM37" s="34">
+      <c r="AM37" s="26">
         <f t="shared" si="9"/>
         <v>53</v>
       </c>
-      <c r="AN37" s="34">
+      <c r="AN37" s="26">
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="AO37" s="34">
+      <c r="AO37" s="26">
         <f t="shared" si="11"/>
         <v>17.5</v>
       </c>
-      <c r="AP37" s="34">
+      <c r="AP37" s="26">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="AQ37" s="34">
+      <c r="AQ37" s="26">
         <f t="shared" si="13"/>
         <v>22.5</v>
       </c>
-      <c r="AR37" s="34">
+      <c r="AR37" s="26">
         <f t="shared" si="14"/>
         <v>10.5</v>
       </c>
-      <c r="AS37" s="34">
+      <c r="AS37" s="26">
         <f t="shared" si="15"/>
         <v>26.5</v>
       </c>
-      <c r="AT37" s="34">
+      <c r="AT37" s="26">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="AU37" s="35" t="str">
+      <c r="AU37" s="27" t="str">
         <f t="shared" si="17"/>
         <v>E</v>
       </c>
-      <c r="AV37" s="35" t="str">
+      <c r="AV37" s="27" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
-      <c r="AW37" s="35" t="str">
+      <c r="AW37" s="27" t="str">
         <f t="shared" si="19"/>
         <v>E</v>
       </c>
-      <c r="AX37" s="35" t="str">
+      <c r="AX37" s="27" t="str">
         <f t="shared" si="20"/>
         <v>E</v>
       </c>
-      <c r="AY37" s="35" t="str">
+      <c r="AY37" s="27" t="str">
         <f t="shared" si="21"/>
         <v>E</v>
       </c>
-      <c r="AZ37" s="35" t="str">
+      <c r="AZ37" s="27" t="str">
         <f t="shared" si="22"/>
         <v>E</v>
       </c>
-      <c r="BA37" s="36">
+      <c r="BA37" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -7790,105 +7793,105 @@
       <c r="Z38" s="8">
         <v>17</v>
       </c>
-      <c r="AA38" s="40">
+      <c r="AA38" s="32">
         <v>31</v>
       </c>
-      <c r="AB38" s="40">
+      <c r="AB38" s="32">
         <v>24</v>
       </c>
-      <c r="AC38" s="41">
+      <c r="AC38" s="33">
         <v>27</v>
       </c>
-      <c r="AD38" s="41">
+      <c r="AD38" s="33">
         <v>55</v>
       </c>
-      <c r="AE38" s="41">
+      <c r="AE38" s="33">
         <v>52</v>
       </c>
       <c r="AF38" s="5">
         <v>11</v>
       </c>
-      <c r="AG38" s="33">
+      <c r="AG38" s="25">
         <f t="shared" si="0"/>
         <v>599</v>
       </c>
-      <c r="AH38" s="33">
+      <c r="AH38" s="25">
         <f t="shared" si="4"/>
         <v>49.9</v>
       </c>
-      <c r="AI38" s="34">
+      <c r="AI38" s="26">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="AJ38" s="34">
+      <c r="AJ38" s="26">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="AK38" s="34">
+      <c r="AK38" s="26">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="AL38" s="34">
+      <c r="AL38" s="26">
         <f t="shared" si="8"/>
         <v>132</v>
       </c>
-      <c r="AM38" s="34">
+      <c r="AM38" s="26">
         <f t="shared" si="9"/>
         <v>121</v>
       </c>
-      <c r="AN38" s="34">
+      <c r="AN38" s="26">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="AO38" s="34">
+      <c r="AO38" s="26">
         <f t="shared" si="11"/>
         <v>49</v>
       </c>
-      <c r="AP38" s="34">
+      <c r="AP38" s="26">
         <f t="shared" si="12"/>
         <v>39</v>
       </c>
-      <c r="AQ38" s="34">
+      <c r="AQ38" s="26">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AR38" s="34">
+      <c r="AR38" s="26">
         <f t="shared" si="14"/>
         <v>66</v>
       </c>
-      <c r="AS38" s="34">
+      <c r="AS38" s="26">
         <f t="shared" si="15"/>
         <v>60.5</v>
       </c>
-      <c r="AT38" s="34">
+      <c r="AT38" s="26">
         <f t="shared" si="16"/>
         <v>35</v>
       </c>
-      <c r="AU38" s="35" t="str">
+      <c r="AU38" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C2</v>
       </c>
-      <c r="AV38" s="35" t="str">
+      <c r="AV38" s="27" t="str">
         <f t="shared" si="18"/>
         <v>D</v>
       </c>
-      <c r="AW38" s="35" t="str">
+      <c r="AW38" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C2</v>
       </c>
-      <c r="AX38" s="35" t="str">
+      <c r="AX38" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY38" s="35" t="str">
+      <c r="AY38" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B2</v>
       </c>
-      <c r="AZ38" s="35" t="str">
+      <c r="AZ38" s="27" t="str">
         <f t="shared" si="22"/>
         <v>D</v>
       </c>
-      <c r="BA38" s="36">
+      <c r="BA38" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -7971,105 +7974,105 @@
       <c r="Z39" s="8">
         <v>16</v>
       </c>
-      <c r="AA39" s="40">
+      <c r="AA39" s="32">
         <v>39</v>
       </c>
-      <c r="AB39" s="40">
+      <c r="AB39" s="32">
         <v>22</v>
       </c>
-      <c r="AC39" s="41">
+      <c r="AC39" s="33">
         <v>30</v>
       </c>
-      <c r="AD39" s="41">
+      <c r="AD39" s="33">
         <v>34</v>
       </c>
-      <c r="AE39" s="41">
+      <c r="AE39" s="33">
         <v>64</v>
       </c>
       <c r="AF39" s="5">
         <v>38</v>
       </c>
-      <c r="AG39" s="33">
+      <c r="AG39" s="25">
         <f t="shared" si="0"/>
         <v>779</v>
       </c>
-      <c r="AH39" s="33">
+      <c r="AH39" s="25">
         <f t="shared" si="4"/>
         <v>64.900000000000006</v>
       </c>
-      <c r="AI39" s="34">
+      <c r="AI39" s="26">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="AJ39" s="34">
+      <c r="AJ39" s="26">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="AK39" s="34">
+      <c r="AK39" s="26">
         <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="AL39" s="34">
+      <c r="AL39" s="26">
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
-      <c r="AM39" s="34">
+      <c r="AM39" s="26">
         <f t="shared" si="9"/>
         <v>166</v>
       </c>
-      <c r="AN39" s="34">
+      <c r="AN39" s="26">
         <f t="shared" si="10"/>
         <v>131</v>
       </c>
-      <c r="AO39" s="34">
+      <c r="AO39" s="26">
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="AP39" s="34">
+      <c r="AP39" s="26">
         <f t="shared" si="12"/>
         <v>54</v>
       </c>
-      <c r="AQ39" s="34">
+      <c r="AQ39" s="26">
         <f t="shared" si="13"/>
         <v>64</v>
       </c>
-      <c r="AR39" s="34">
+      <c r="AR39" s="26">
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="AS39" s="34">
+      <c r="AS39" s="26">
         <f t="shared" si="15"/>
         <v>83</v>
       </c>
-      <c r="AT39" s="34">
+      <c r="AT39" s="26">
         <f t="shared" si="16"/>
         <v>65.5</v>
       </c>
-      <c r="AU39" s="35" t="str">
+      <c r="AU39" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV39" s="35" t="str">
+      <c r="AV39" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW39" s="35" t="str">
+      <c r="AW39" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B2</v>
       </c>
-      <c r="AX39" s="35" t="str">
+      <c r="AX39" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY39" s="35" t="str">
+      <c r="AY39" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="AZ39" s="35" t="str">
+      <c r="AZ39" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B2</v>
       </c>
-      <c r="BA39" s="36">
+      <c r="BA39" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -8094,42 +8097,42 @@
         <v>8218601235</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="I40" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="I40" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J40" s="42" t="s">
+      <c r="J40" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="42" t="s">
+      <c r="K40" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L40" s="42" t="s">
+      <c r="L40" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M40" s="42" t="s">
+      <c r="M40" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="42" t="s">
+      <c r="N40" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="O40" s="42" t="s">
+      <c r="O40" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="P40" s="42" t="s">
+      <c r="P40" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Q40" s="42" t="s">
+      <c r="Q40" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="R40" s="42" t="s">
+      <c r="R40" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S40" s="42" t="s">
+      <c r="S40" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="T40" s="42" t="s">
+      <c r="T40" s="34" t="s">
         <v>31</v>
       </c>
       <c r="U40" s="8">
@@ -8150,105 +8153,105 @@
       <c r="Z40" s="8">
         <v>13</v>
       </c>
-      <c r="AA40" s="40">
+      <c r="AA40" s="32">
         <v>20</v>
       </c>
-      <c r="AB40" s="40">
+      <c r="AB40" s="32">
         <v>7</v>
       </c>
-      <c r="AC40" s="41">
+      <c r="AC40" s="33">
         <v>20</v>
       </c>
-      <c r="AD40" s="41">
+      <c r="AD40" s="33">
         <v>30</v>
       </c>
-      <c r="AE40" s="41">
+      <c r="AE40" s="33">
         <v>41</v>
       </c>
       <c r="AF40" s="5">
         <v>15</v>
       </c>
-      <c r="AG40" s="33">
+      <c r="AG40" s="25">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="AH40" s="33">
+      <c r="AH40" s="25">
         <f t="shared" si="4"/>
         <v>17.7</v>
       </c>
-      <c r="AI40" s="34">
+      <c r="AI40" s="26">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="AJ40" s="34">
+      <c r="AJ40" s="26">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="AK40" s="34">
+      <c r="AK40" s="26">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="AL40" s="34">
+      <c r="AL40" s="26">
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="AM40" s="34">
+      <c r="AM40" s="26">
         <f t="shared" si="9"/>
         <v>55</v>
       </c>
-      <c r="AN40" s="34">
+      <c r="AN40" s="26">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="AO40" s="34">
+      <c r="AO40" s="26">
         <f t="shared" si="11"/>
         <v>16.5</v>
       </c>
-      <c r="AP40" s="34">
+      <c r="AP40" s="26">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="AQ40" s="34">
+      <c r="AQ40" s="26">
         <f t="shared" si="13"/>
         <v>16.5</v>
       </c>
-      <c r="AR40" s="34">
+      <c r="AR40" s="26">
         <f t="shared" si="14"/>
         <v>21.5</v>
       </c>
-      <c r="AS40" s="34">
+      <c r="AS40" s="26">
         <f t="shared" si="15"/>
         <v>27.5</v>
       </c>
-      <c r="AT40" s="34">
+      <c r="AT40" s="26">
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="AU40" s="35" t="str">
+      <c r="AU40" s="27" t="str">
         <f t="shared" si="17"/>
         <v>E</v>
       </c>
-      <c r="AV40" s="35" t="str">
+      <c r="AV40" s="27" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
-      <c r="AW40" s="35" t="str">
+      <c r="AW40" s="27" t="str">
         <f t="shared" si="19"/>
         <v>E</v>
       </c>
-      <c r="AX40" s="35" t="str">
+      <c r="AX40" s="27" t="str">
         <f t="shared" si="20"/>
         <v>E</v>
       </c>
-      <c r="AY40" s="35" t="str">
+      <c r="AY40" s="27" t="str">
         <f t="shared" si="21"/>
         <v>E</v>
       </c>
-      <c r="AZ40" s="35" t="str">
+      <c r="AZ40" s="27" t="str">
         <f t="shared" si="22"/>
         <v>E</v>
       </c>
-      <c r="BA40" s="36">
+      <c r="BA40" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -8331,105 +8334,105 @@
       <c r="Z41" s="8">
         <v>18</v>
       </c>
-      <c r="AA41" s="40">
+      <c r="AA41" s="32">
         <v>52</v>
       </c>
-      <c r="AB41" s="40">
+      <c r="AB41" s="32">
         <v>52</v>
       </c>
-      <c r="AC41" s="41">
+      <c r="AC41" s="33">
         <v>62</v>
       </c>
-      <c r="AD41" s="41">
+      <c r="AD41" s="33">
         <v>67</v>
       </c>
-      <c r="AE41" s="41">
+      <c r="AE41" s="33">
         <v>76</v>
       </c>
       <c r="AF41" s="5">
         <v>62</v>
       </c>
-      <c r="AG41" s="33">
+      <c r="AG41" s="25">
         <f t="shared" si="0"/>
         <v>933</v>
       </c>
-      <c r="AH41" s="33">
+      <c r="AH41" s="25">
         <f t="shared" si="4"/>
         <v>77.8</v>
       </c>
-      <c r="AI41" s="34">
+      <c r="AI41" s="26">
         <f>(IF(I41="NA",0,IF(I41="Ab",0,I41)))+(IF(O41="NA",0,IF(O41="Ab",0,O41)))+(IF(U41="NA",0,IF(U41="Ab",0,U41)))+(IF(AA41="NA",0,IF(AA41="Ab",0,AA41)))</f>
         <v>143</v>
       </c>
-      <c r="AJ41" s="34">
+      <c r="AJ41" s="26">
         <f t="shared" si="6"/>
         <v>121</v>
       </c>
-      <c r="AK41" s="34">
+      <c r="AK41" s="26">
         <f t="shared" si="7"/>
         <v>170</v>
       </c>
-      <c r="AL41" s="34">
+      <c r="AL41" s="26">
         <f t="shared" si="8"/>
         <v>170</v>
       </c>
-      <c r="AM41" s="34">
+      <c r="AM41" s="26">
         <f t="shared" si="9"/>
         <v>175</v>
       </c>
-      <c r="AN41" s="34">
+      <c r="AN41" s="26">
         <f t="shared" si="10"/>
         <v>154</v>
       </c>
-      <c r="AO41" s="34">
+      <c r="AO41" s="26">
         <f>ROUND(AI41/200*100,1)</f>
         <v>71.5</v>
       </c>
-      <c r="AP41" s="34">
+      <c r="AP41" s="26">
         <f t="shared" si="12"/>
         <v>60.5</v>
       </c>
-      <c r="AQ41" s="34">
+      <c r="AQ41" s="26">
         <f t="shared" si="13"/>
         <v>85</v>
       </c>
-      <c r="AR41" s="34">
+      <c r="AR41" s="26">
         <f t="shared" si="14"/>
         <v>85</v>
       </c>
-      <c r="AS41" s="34">
+      <c r="AS41" s="26">
         <f t="shared" si="15"/>
         <v>87.5</v>
       </c>
-      <c r="AT41" s="34">
+      <c r="AT41" s="26">
         <f t="shared" si="16"/>
         <v>77</v>
       </c>
-      <c r="AU41" s="35" t="str">
+      <c r="AU41" s="27" t="str">
         <f>IF(AO41&gt;90,"A1",IF(AO41&gt;80,"A2",IF(AO41&gt;70,"B1",IF(AO41&gt;60,"B2",IF(AO41&gt;50,"C1",IF(AO41&gt;40,"C2",IF(AO41&gt;32,"D","E")))))))</f>
         <v>B1</v>
       </c>
-      <c r="AV41" s="35" t="str">
+      <c r="AV41" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B2</v>
       </c>
-      <c r="AW41" s="35" t="str">
+      <c r="AW41" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A2</v>
       </c>
-      <c r="AX41" s="35" t="str">
+      <c r="AX41" s="27" t="str">
         <f t="shared" si="20"/>
         <v>A2</v>
       </c>
-      <c r="AY41" s="35" t="str">
+      <c r="AY41" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="AZ41" s="35" t="str">
+      <c r="AZ41" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B1</v>
       </c>
-      <c r="BA41" s="36">
+      <c r="BA41" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -8512,105 +8515,105 @@
       <c r="Z42" s="8">
         <v>17</v>
       </c>
-      <c r="AA42" s="40">
+      <c r="AA42" s="32">
         <v>61</v>
       </c>
-      <c r="AB42" s="40">
+      <c r="AB42" s="32">
         <v>36</v>
       </c>
-      <c r="AC42" s="41">
+      <c r="AC42" s="33">
         <v>54</v>
       </c>
-      <c r="AD42" s="41">
+      <c r="AD42" s="33">
         <v>66</v>
       </c>
-      <c r="AE42" s="41">
+      <c r="AE42" s="33">
         <v>78</v>
       </c>
       <c r="AF42" s="5">
         <v>55</v>
       </c>
-      <c r="AG42" s="33">
+      <c r="AG42" s="25">
         <f t="shared" si="0"/>
         <v>924</v>
       </c>
-      <c r="AH42" s="33">
+      <c r="AH42" s="25">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
-      <c r="AI42" s="34">
+      <c r="AI42" s="26">
         <f t="shared" ref="AI42:AI51" si="23">(IF(I42="NA",0,IF(I42="Ab",0,I42)))+(IF(O42="NA",0,IF(O42="Ab",0,O42)))+(IF(U42="NA",0,IF(U42="Ab",0,U42)))+(IF(AA42="NA",0,IF(AA42="Ab",0,AA42)))</f>
         <v>143</v>
       </c>
-      <c r="AJ42" s="34">
+      <c r="AJ42" s="26">
         <f t="shared" ref="AJ42:AJ51" si="24">(IF(J42="NA",0,IF(J42="Ab",0,J42)))+(IF(P42="NA",0,IF(P42="Ab",0,P42)))+(IF(V42="NA",0,IF(V42="Ab",0,V42)))+(IF(AB42="NA",0,IF(AB42="Ab",0,AB42)))</f>
         <v>127</v>
       </c>
-      <c r="AK42" s="34">
+      <c r="AK42" s="26">
         <f t="shared" ref="AK42:AK51" si="25">(IF(K42="NA",0,IF(K42="Ab",0,K42)))+(IF(Q42="NA",0,IF(Q42="Ab",0,Q42)))+(IF(W42="NA",0,IF(W42="Ab",0,W42)))+(IF(AC42="NA",0,IF(AC42="Ab",0,AC42)))</f>
         <v>159</v>
       </c>
-      <c r="AL42" s="34">
+      <c r="AL42" s="26">
         <f t="shared" ref="AL42:AL51" si="26">(IF(L42="NA",0,IF(L42="Ab",0,L42)))+(IF(R42="NA",0,IF(R42="Ab",0,R42)))+(IF(X42="NA",0,IF(X42="Ab",0,X42)))+(IF(AD42="NA",0,IF(AD42="Ab",0,AD42)))</f>
         <v>167</v>
       </c>
-      <c r="AM42" s="34">
+      <c r="AM42" s="26">
         <f t="shared" ref="AM42:AM51" si="27">(IF(M42="NA",0,IF(M42="Ab",0,M42)))+(IF(S42="NA",0,IF(S42="Ab",0,S42)))+(IF(Y42="NA",0,IF(Y42="Ab",0,Y42)))+(IF(AE42="NA",0,IF(AE42="Ab",0,AE42)))</f>
         <v>180</v>
       </c>
-      <c r="AN42" s="34">
+      <c r="AN42" s="26">
         <f t="shared" ref="AN42:AN51" si="28">(IF(N42="NA",0,IF(N42="Ab",0,N42)))+(IF(T42="NA",0,IF(T42="Ab",0,T42)))+(IF(Z42="NA",0,IF(Z42="Ab",0,Z42)))+(IF(AF42="NA",0,IF(AF42="Ab",0,AF42)))</f>
         <v>148</v>
       </c>
-      <c r="AO42" s="34">
+      <c r="AO42" s="26">
         <f t="shared" ref="AO42:AO51" si="29">ROUND(AI42/200*100,1)</f>
         <v>71.5</v>
       </c>
-      <c r="AP42" s="34">
+      <c r="AP42" s="26">
         <f t="shared" ref="AP42:AP51" si="30">ROUND(AJ42/200*100,1)</f>
         <v>63.5</v>
       </c>
-      <c r="AQ42" s="34">
+      <c r="AQ42" s="26">
         <f t="shared" ref="AQ42:AQ51" si="31">ROUND(AK42/200*100,1)</f>
         <v>79.5</v>
       </c>
-      <c r="AR42" s="34">
+      <c r="AR42" s="26">
         <f t="shared" ref="AR42:AR51" si="32">ROUND(AL42/200*100,1)</f>
         <v>83.5</v>
       </c>
-      <c r="AS42" s="34">
+      <c r="AS42" s="26">
         <f t="shared" ref="AS42:AS51" si="33">ROUND(AM42/200*100,1)</f>
         <v>90</v>
       </c>
-      <c r="AT42" s="34">
+      <c r="AT42" s="26">
         <f t="shared" ref="AT42:AT51" si="34">ROUND(AN42/200*100,1)</f>
         <v>74</v>
       </c>
-      <c r="AU42" s="35" t="str">
+      <c r="AU42" s="27" t="str">
         <f t="shared" ref="AU42:AU51" si="35">IF(AO42&gt;90,"A1",IF(AO42&gt;80,"A2",IF(AO42&gt;70,"B1",IF(AO42&gt;60,"B2",IF(AO42&gt;50,"C1",IF(AO42&gt;40,"C2",IF(AO42&gt;32,"D","E")))))))</f>
         <v>B1</v>
       </c>
-      <c r="AV42" s="35" t="str">
+      <c r="AV42" s="27" t="str">
         <f t="shared" ref="AV42:AV51" si="36">IF(AP42&gt;90,"A1",IF(AP42&gt;80,"A2",IF(AP42&gt;70,"B1",IF(AP42&gt;60,"B2",IF(AP42&gt;50,"C1",IF(AP42&gt;40,"C2",IF(AP42&gt;32,"D","E")))))))</f>
         <v>B2</v>
       </c>
-      <c r="AW42" s="35" t="str">
+      <c r="AW42" s="27" t="str">
         <f t="shared" ref="AW42:AW51" si="37">IF(AQ42&gt;90,"A1",IF(AQ42&gt;80,"A2",IF(AQ42&gt;70,"B1",IF(AQ42&gt;60,"B2",IF(AQ42&gt;50,"C1",IF(AQ42&gt;40,"C2",IF(AQ42&gt;32,"D","E")))))))</f>
         <v>B1</v>
       </c>
-      <c r="AX42" s="35" t="str">
+      <c r="AX42" s="27" t="str">
         <f t="shared" ref="AX42:AX51" si="38">IF(AR42&gt;90,"A1",IF(AR42&gt;80,"A2",IF(AR42&gt;70,"B1",IF(AR42&gt;60,"B2",IF(AR42&gt;50,"C1",IF(AR42&gt;40,"C2",IF(AR42&gt;32,"D","E")))))))</f>
         <v>A2</v>
       </c>
-      <c r="AY42" s="35" t="str">
+      <c r="AY42" s="27" t="str">
         <f t="shared" ref="AY42:AY51" si="39">IF(AS42&gt;90,"A1",IF(AS42&gt;80,"A2",IF(AS42&gt;70,"B1",IF(AS42&gt;60,"B2",IF(AS42&gt;50,"C1",IF(AS42&gt;40,"C2",IF(AS42&gt;32,"D","E")))))))</f>
         <v>A2</v>
       </c>
-      <c r="AZ42" s="35" t="str">
+      <c r="AZ42" s="27" t="str">
         <f t="shared" ref="AZ42:AZ51" si="40">IF(AT42&gt;90,"A1",IF(AT42&gt;80,"A2",IF(AT42&gt;70,"B1",IF(AT42&gt;60,"B2",IF(AT42&gt;50,"C1",IF(AT42&gt;40,"C2",IF(AT42&gt;32,"D","E")))))))</f>
         <v>B1</v>
       </c>
-      <c r="BA42" s="36">
+      <c r="BA42" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -8625,10 +8628,10 @@
         <v>154</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="F43" s="4">
         <v>7</v>
@@ -8637,7 +8640,7 @@
         <v>9997130107</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I43" s="7">
         <v>20</v>
@@ -8693,105 +8696,105 @@
       <c r="Z43" s="8">
         <v>19</v>
       </c>
-      <c r="AA43" s="40">
+      <c r="AA43" s="32">
         <v>67</v>
       </c>
-      <c r="AB43" s="40">
+      <c r="AB43" s="32">
         <v>50</v>
       </c>
-      <c r="AC43" s="41">
+      <c r="AC43" s="33">
         <v>64</v>
       </c>
-      <c r="AD43" s="41">
+      <c r="AD43" s="33">
         <v>69</v>
       </c>
-      <c r="AE43" s="41">
+      <c r="AE43" s="33">
         <v>76</v>
       </c>
       <c r="AF43" s="5">
         <v>65</v>
       </c>
-      <c r="AG43" s="33">
+      <c r="AG43" s="25">
         <f t="shared" si="0"/>
         <v>1009</v>
       </c>
-      <c r="AH43" s="33">
+      <c r="AH43" s="25">
         <f t="shared" si="4"/>
         <v>84.1</v>
       </c>
-      <c r="AI43" s="34">
+      <c r="AI43" s="26">
         <f t="shared" si="23"/>
         <v>169</v>
       </c>
-      <c r="AJ43" s="34">
+      <c r="AJ43" s="26">
         <f t="shared" si="24"/>
         <v>130</v>
       </c>
-      <c r="AK43" s="34">
+      <c r="AK43" s="26">
         <f t="shared" si="25"/>
         <v>170</v>
       </c>
-      <c r="AL43" s="34">
+      <c r="AL43" s="26">
         <f t="shared" si="26"/>
         <v>180</v>
       </c>
-      <c r="AM43" s="34">
+      <c r="AM43" s="26">
         <f t="shared" si="27"/>
         <v>184</v>
       </c>
-      <c r="AN43" s="34">
+      <c r="AN43" s="26">
         <f t="shared" si="28"/>
         <v>176</v>
       </c>
-      <c r="AO43" s="34">
+      <c r="AO43" s="26">
         <f t="shared" si="29"/>
         <v>84.5</v>
       </c>
-      <c r="AP43" s="34">
+      <c r="AP43" s="26">
         <f t="shared" si="30"/>
         <v>65</v>
       </c>
-      <c r="AQ43" s="34">
+      <c r="AQ43" s="26">
         <f t="shared" si="31"/>
         <v>85</v>
       </c>
-      <c r="AR43" s="34">
+      <c r="AR43" s="26">
         <f t="shared" si="32"/>
         <v>90</v>
       </c>
-      <c r="AS43" s="34">
+      <c r="AS43" s="26">
         <f t="shared" si="33"/>
         <v>92</v>
       </c>
-      <c r="AT43" s="34">
+      <c r="AT43" s="26">
         <f t="shared" si="34"/>
         <v>88</v>
       </c>
-      <c r="AU43" s="35" t="str">
+      <c r="AU43" s="27" t="str">
         <f t="shared" si="35"/>
         <v>A2</v>
       </c>
-      <c r="AV43" s="35" t="str">
+      <c r="AV43" s="27" t="str">
         <f t="shared" si="36"/>
         <v>B2</v>
       </c>
-      <c r="AW43" s="35" t="str">
+      <c r="AW43" s="27" t="str">
         <f t="shared" si="37"/>
         <v>A2</v>
       </c>
-      <c r="AX43" s="35" t="str">
+      <c r="AX43" s="27" t="str">
         <f t="shared" si="38"/>
         <v>A2</v>
       </c>
-      <c r="AY43" s="35" t="str">
+      <c r="AY43" s="27" t="str">
         <f t="shared" si="39"/>
         <v>A1</v>
       </c>
-      <c r="AZ43" s="35" t="str">
+      <c r="AZ43" s="27" t="str">
         <f t="shared" si="40"/>
         <v>A2</v>
       </c>
-      <c r="BA43" s="36">
+      <c r="BA43" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -8803,13 +8806,13 @@
         <v>2245</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="F44" s="4">
         <v>7</v>
@@ -8818,7 +8821,7 @@
         <v>8650149410</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I44" s="7">
         <v>18</v>
@@ -8874,105 +8877,105 @@
       <c r="Z44" s="8">
         <v>17</v>
       </c>
-      <c r="AA44" s="40">
+      <c r="AA44" s="32">
         <v>53</v>
       </c>
-      <c r="AB44" s="40">
+      <c r="AB44" s="32">
         <v>38</v>
       </c>
-      <c r="AC44" s="41">
+      <c r="AC44" s="33">
         <v>51</v>
       </c>
-      <c r="AD44" s="41">
+      <c r="AD44" s="33">
         <v>39</v>
       </c>
-      <c r="AE44" s="41">
+      <c r="AE44" s="33">
         <v>69</v>
       </c>
       <c r="AF44" s="5">
         <v>52</v>
       </c>
-      <c r="AG44" s="33">
+      <c r="AG44" s="25">
         <f t="shared" si="0"/>
         <v>752</v>
       </c>
-      <c r="AH44" s="33">
+      <c r="AH44" s="25">
         <f t="shared" si="4"/>
         <v>62.7</v>
       </c>
-      <c r="AI44" s="34">
+      <c r="AI44" s="26">
         <f t="shared" si="23"/>
         <v>126</v>
       </c>
-      <c r="AJ44" s="34">
+      <c r="AJ44" s="26">
         <f t="shared" si="24"/>
         <v>106</v>
       </c>
-      <c r="AK44" s="34">
+      <c r="AK44" s="26">
         <f t="shared" si="25"/>
         <v>125</v>
       </c>
-      <c r="AL44" s="34">
+      <c r="AL44" s="26">
         <f t="shared" si="26"/>
         <v>123</v>
       </c>
-      <c r="AM44" s="34">
+      <c r="AM44" s="26">
         <f t="shared" si="27"/>
         <v>149</v>
       </c>
-      <c r="AN44" s="34">
+      <c r="AN44" s="26">
         <f t="shared" si="28"/>
         <v>123</v>
       </c>
-      <c r="AO44" s="34">
+      <c r="AO44" s="26">
         <f t="shared" si="29"/>
         <v>63</v>
       </c>
-      <c r="AP44" s="34">
+      <c r="AP44" s="26">
         <f t="shared" si="30"/>
         <v>53</v>
       </c>
-      <c r="AQ44" s="34">
+      <c r="AQ44" s="26">
         <f t="shared" si="31"/>
         <v>62.5</v>
       </c>
-      <c r="AR44" s="34">
+      <c r="AR44" s="26">
         <f t="shared" si="32"/>
         <v>61.5</v>
       </c>
-      <c r="AS44" s="34">
+      <c r="AS44" s="26">
         <f t="shared" si="33"/>
         <v>74.5</v>
       </c>
-      <c r="AT44" s="34">
+      <c r="AT44" s="26">
         <f t="shared" si="34"/>
         <v>61.5</v>
       </c>
-      <c r="AU44" s="35" t="str">
+      <c r="AU44" s="27" t="str">
         <f t="shared" si="35"/>
         <v>B2</v>
       </c>
-      <c r="AV44" s="35" t="str">
+      <c r="AV44" s="27" t="str">
         <f t="shared" si="36"/>
         <v>C1</v>
       </c>
-      <c r="AW44" s="35" t="str">
+      <c r="AW44" s="27" t="str">
         <f t="shared" si="37"/>
         <v>B2</v>
       </c>
-      <c r="AX44" s="35" t="str">
+      <c r="AX44" s="27" t="str">
         <f t="shared" si="38"/>
         <v>B2</v>
       </c>
-      <c r="AY44" s="35" t="str">
+      <c r="AY44" s="27" t="str">
         <f t="shared" si="39"/>
         <v>B1</v>
       </c>
-      <c r="AZ44" s="35" t="str">
+      <c r="AZ44" s="27" t="str">
         <f t="shared" si="40"/>
         <v>B2</v>
       </c>
-      <c r="BA44" s="36">
+      <c r="BA44" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -8984,13 +8987,13 @@
         <v>2214</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="F45" s="4">
         <v>7</v>
@@ -8999,7 +9002,7 @@
         <v>9368860086</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I45" s="7">
         <v>20</v>
@@ -9055,105 +9058,105 @@
       <c r="Z45" s="8">
         <v>19</v>
       </c>
-      <c r="AA45" s="40">
+      <c r="AA45" s="32">
         <v>63</v>
       </c>
-      <c r="AB45" s="40">
+      <c r="AB45" s="32">
         <v>72</v>
       </c>
-      <c r="AC45" s="41">
+      <c r="AC45" s="33">
         <v>60</v>
       </c>
-      <c r="AD45" s="41">
+      <c r="AD45" s="33">
         <v>70</v>
       </c>
-      <c r="AE45" s="41">
+      <c r="AE45" s="33">
         <v>77</v>
       </c>
       <c r="AF45" s="5">
         <v>63</v>
       </c>
-      <c r="AG45" s="33">
+      <c r="AG45" s="25">
         <f t="shared" si="0"/>
         <v>997</v>
       </c>
-      <c r="AH45" s="33">
+      <c r="AH45" s="25">
         <f t="shared" si="4"/>
         <v>83.1</v>
       </c>
-      <c r="AI45" s="34">
+      <c r="AI45" s="26">
         <f t="shared" si="23"/>
         <v>150</v>
       </c>
-      <c r="AJ45" s="34">
+      <c r="AJ45" s="26">
         <f t="shared" si="24"/>
         <v>162</v>
       </c>
-      <c r="AK45" s="34">
+      <c r="AK45" s="26">
         <f t="shared" si="25"/>
         <v>157</v>
       </c>
-      <c r="AL45" s="34">
+      <c r="AL45" s="26">
         <f t="shared" si="26"/>
         <v>176</v>
       </c>
-      <c r="AM45" s="34">
+      <c r="AM45" s="26">
         <f t="shared" si="27"/>
         <v>181</v>
       </c>
-      <c r="AN45" s="34">
+      <c r="AN45" s="26">
         <f t="shared" si="28"/>
         <v>171</v>
       </c>
-      <c r="AO45" s="34">
+      <c r="AO45" s="26">
         <f t="shared" si="29"/>
         <v>75</v>
       </c>
-      <c r="AP45" s="34">
+      <c r="AP45" s="26">
         <f t="shared" si="30"/>
         <v>81</v>
       </c>
-      <c r="AQ45" s="34">
+      <c r="AQ45" s="26">
         <f t="shared" si="31"/>
         <v>78.5</v>
       </c>
-      <c r="AR45" s="34">
+      <c r="AR45" s="26">
         <f t="shared" si="32"/>
         <v>88</v>
       </c>
-      <c r="AS45" s="34">
+      <c r="AS45" s="26">
         <f t="shared" si="33"/>
         <v>90.5</v>
       </c>
-      <c r="AT45" s="34">
+      <c r="AT45" s="26">
         <f t="shared" si="34"/>
         <v>85.5</v>
       </c>
-      <c r="AU45" s="35" t="str">
+      <c r="AU45" s="27" t="str">
         <f t="shared" si="35"/>
         <v>B1</v>
       </c>
-      <c r="AV45" s="35" t="str">
+      <c r="AV45" s="27" t="str">
         <f t="shared" si="36"/>
         <v>A2</v>
       </c>
-      <c r="AW45" s="35" t="str">
+      <c r="AW45" s="27" t="str">
         <f t="shared" si="37"/>
         <v>B1</v>
       </c>
-      <c r="AX45" s="35" t="str">
+      <c r="AX45" s="27" t="str">
         <f t="shared" si="38"/>
         <v>A2</v>
       </c>
-      <c r="AY45" s="35" t="str">
+      <c r="AY45" s="27" t="str">
         <f t="shared" si="39"/>
         <v>A1</v>
       </c>
-      <c r="AZ45" s="35" t="str">
+      <c r="AZ45" s="27" t="str">
         <f t="shared" si="40"/>
         <v>A2</v>
       </c>
-      <c r="BA45" s="36">
+      <c r="BA45" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -9165,13 +9168,13 @@
         <v>2677</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="F46" s="4">
         <v>7</v>
@@ -9180,7 +9183,7 @@
         <v>8630307892</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I46" s="7">
         <v>20</v>
@@ -9236,105 +9239,105 @@
       <c r="Z46" s="8">
         <v>19</v>
       </c>
-      <c r="AA46" s="40">
+      <c r="AA46" s="32">
         <v>63</v>
       </c>
-      <c r="AB46" s="40">
+      <c r="AB46" s="32">
         <v>55</v>
       </c>
-      <c r="AC46" s="41">
+      <c r="AC46" s="33">
         <v>56</v>
       </c>
-      <c r="AD46" s="41">
+      <c r="AD46" s="33">
         <v>65</v>
       </c>
-      <c r="AE46" s="41">
+      <c r="AE46" s="33">
         <v>74</v>
       </c>
       <c r="AF46" s="5">
         <v>50</v>
       </c>
-      <c r="AG46" s="33">
+      <c r="AG46" s="25">
         <f t="shared" si="0"/>
         <v>978</v>
       </c>
-      <c r="AH46" s="33">
+      <c r="AH46" s="25">
         <f t="shared" si="4"/>
         <v>81.5</v>
       </c>
-      <c r="AI46" s="34">
+      <c r="AI46" s="26">
         <f t="shared" si="23"/>
         <v>163</v>
       </c>
-      <c r="AJ46" s="34">
+      <c r="AJ46" s="26">
         <f t="shared" si="24"/>
         <v>135</v>
       </c>
-      <c r="AK46" s="34">
+      <c r="AK46" s="26">
         <f t="shared" si="25"/>
         <v>165</v>
       </c>
-      <c r="AL46" s="34">
+      <c r="AL46" s="26">
         <f t="shared" si="26"/>
         <v>175</v>
       </c>
-      <c r="AM46" s="34">
+      <c r="AM46" s="26">
         <f t="shared" si="27"/>
         <v>182</v>
       </c>
-      <c r="AN46" s="34">
+      <c r="AN46" s="26">
         <f t="shared" si="28"/>
         <v>158</v>
       </c>
-      <c r="AO46" s="34">
+      <c r="AO46" s="26">
         <f t="shared" si="29"/>
         <v>81.5</v>
       </c>
-      <c r="AP46" s="34">
+      <c r="AP46" s="26">
         <f t="shared" si="30"/>
         <v>67.5</v>
       </c>
-      <c r="AQ46" s="34">
+      <c r="AQ46" s="26">
         <f t="shared" si="31"/>
         <v>82.5</v>
       </c>
-      <c r="AR46" s="34">
+      <c r="AR46" s="26">
         <f t="shared" si="32"/>
         <v>87.5</v>
       </c>
-      <c r="AS46" s="34">
+      <c r="AS46" s="26">
         <f t="shared" si="33"/>
         <v>91</v>
       </c>
-      <c r="AT46" s="34">
+      <c r="AT46" s="26">
         <f t="shared" si="34"/>
         <v>79</v>
       </c>
-      <c r="AU46" s="35" t="str">
+      <c r="AU46" s="27" t="str">
         <f t="shared" si="35"/>
         <v>A2</v>
       </c>
-      <c r="AV46" s="35" t="str">
+      <c r="AV46" s="27" t="str">
         <f t="shared" si="36"/>
         <v>B2</v>
       </c>
-      <c r="AW46" s="35" t="str">
+      <c r="AW46" s="27" t="str">
         <f t="shared" si="37"/>
         <v>A2</v>
       </c>
-      <c r="AX46" s="35" t="str">
+      <c r="AX46" s="27" t="str">
         <f t="shared" si="38"/>
         <v>A2</v>
       </c>
-      <c r="AY46" s="35" t="str">
+      <c r="AY46" s="27" t="str">
         <f t="shared" si="39"/>
         <v>A1</v>
       </c>
-      <c r="AZ46" s="35" t="str">
+      <c r="AZ46" s="27" t="str">
         <f t="shared" si="40"/>
         <v>B1</v>
       </c>
-      <c r="BA46" s="36">
+      <c r="BA46" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -9346,13 +9349,13 @@
         <v>2432</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F47" s="4">
         <v>7</v>
@@ -9417,105 +9420,105 @@
       <c r="Z47" s="8">
         <v>19</v>
       </c>
-      <c r="AA47" s="40">
+      <c r="AA47" s="32">
         <v>60</v>
       </c>
-      <c r="AB47" s="40">
+      <c r="AB47" s="32">
         <v>65</v>
       </c>
-      <c r="AC47" s="41">
+      <c r="AC47" s="33">
         <v>50</v>
       </c>
-      <c r="AD47" s="41">
+      <c r="AD47" s="33">
         <v>61</v>
       </c>
-      <c r="AE47" s="41">
+      <c r="AE47" s="33">
         <v>78</v>
       </c>
       <c r="AF47" s="5">
         <v>65</v>
       </c>
-      <c r="AG47" s="33">
+      <c r="AG47" s="25">
         <f t="shared" si="0"/>
         <v>1013</v>
       </c>
-      <c r="AH47" s="33">
+      <c r="AH47" s="25">
         <f t="shared" si="4"/>
         <v>84.4</v>
       </c>
-      <c r="AI47" s="34">
+      <c r="AI47" s="26">
         <f t="shared" si="23"/>
         <v>162</v>
       </c>
-      <c r="AJ47" s="34">
+      <c r="AJ47" s="26">
         <f t="shared" si="24"/>
         <v>153</v>
       </c>
-      <c r="AK47" s="34">
+      <c r="AK47" s="26">
         <f t="shared" si="25"/>
         <v>164</v>
       </c>
-      <c r="AL47" s="34">
+      <c r="AL47" s="26">
         <f t="shared" si="26"/>
         <v>169</v>
       </c>
-      <c r="AM47" s="34">
+      <c r="AM47" s="26">
         <f t="shared" si="27"/>
         <v>186</v>
       </c>
-      <c r="AN47" s="34">
+      <c r="AN47" s="26">
         <f t="shared" si="28"/>
         <v>179</v>
       </c>
-      <c r="AO47" s="34">
+      <c r="AO47" s="26">
         <f t="shared" si="29"/>
         <v>81</v>
       </c>
-      <c r="AP47" s="34">
+      <c r="AP47" s="26">
         <f t="shared" si="30"/>
         <v>76.5</v>
       </c>
-      <c r="AQ47" s="34">
+      <c r="AQ47" s="26">
         <f t="shared" si="31"/>
         <v>82</v>
       </c>
-      <c r="AR47" s="34">
+      <c r="AR47" s="26">
         <f t="shared" si="32"/>
         <v>84.5</v>
       </c>
-      <c r="AS47" s="34">
+      <c r="AS47" s="26">
         <f t="shared" si="33"/>
         <v>93</v>
       </c>
-      <c r="AT47" s="34">
+      <c r="AT47" s="26">
         <f t="shared" si="34"/>
         <v>89.5</v>
       </c>
-      <c r="AU47" s="35" t="str">
+      <c r="AU47" s="27" t="str">
         <f t="shared" si="35"/>
         <v>A2</v>
       </c>
-      <c r="AV47" s="35" t="str">
+      <c r="AV47" s="27" t="str">
         <f t="shared" si="36"/>
         <v>B1</v>
       </c>
-      <c r="AW47" s="35" t="str">
+      <c r="AW47" s="27" t="str">
         <f t="shared" si="37"/>
         <v>A2</v>
       </c>
-      <c r="AX47" s="35" t="str">
+      <c r="AX47" s="27" t="str">
         <f t="shared" si="38"/>
         <v>A2</v>
       </c>
-      <c r="AY47" s="35" t="str">
+      <c r="AY47" s="27" t="str">
         <f t="shared" si="39"/>
         <v>A1</v>
       </c>
-      <c r="AZ47" s="35" t="str">
+      <c r="AZ47" s="27" t="str">
         <f t="shared" si="40"/>
         <v>A2</v>
       </c>
-      <c r="BA47" s="36">
+      <c r="BA47" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -9527,13 +9530,13 @@
         <v>2340</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="F48" s="4">
         <v>7</v>
@@ -9542,7 +9545,7 @@
         <v>9045605788</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I48" s="7">
         <v>15</v>
@@ -9598,105 +9601,105 @@
       <c r="Z48" s="8">
         <v>18</v>
       </c>
-      <c r="AA48" s="40">
+      <c r="AA48" s="32">
         <v>17</v>
       </c>
-      <c r="AB48" s="40">
+      <c r="AB48" s="32">
         <v>7</v>
       </c>
-      <c r="AC48" s="41">
+      <c r="AC48" s="33">
         <v>7</v>
       </c>
-      <c r="AD48" s="41">
+      <c r="AD48" s="33">
         <v>29</v>
       </c>
-      <c r="AE48" s="41">
+      <c r="AE48" s="33">
         <v>42</v>
       </c>
       <c r="AF48" s="5">
         <v>16</v>
       </c>
-      <c r="AG48" s="33">
+      <c r="AG48" s="25">
         <f t="shared" si="0"/>
         <v>609</v>
       </c>
-      <c r="AH48" s="33">
+      <c r="AH48" s="25">
         <f t="shared" si="4"/>
         <v>50.8</v>
       </c>
-      <c r="AI48" s="34">
+      <c r="AI48" s="26">
         <f t="shared" si="23"/>
         <v>74</v>
       </c>
-      <c r="AJ48" s="34">
+      <c r="AJ48" s="26">
         <f t="shared" si="24"/>
         <v>86</v>
       </c>
-      <c r="AK48" s="34">
+      <c r="AK48" s="26">
         <f t="shared" si="25"/>
         <v>106</v>
       </c>
-      <c r="AL48" s="34">
+      <c r="AL48" s="26">
         <f t="shared" si="26"/>
         <v>116</v>
       </c>
-      <c r="AM48" s="34">
+      <c r="AM48" s="26">
         <f t="shared" si="27"/>
         <v>126</v>
       </c>
-      <c r="AN48" s="34">
+      <c r="AN48" s="26">
         <f t="shared" si="28"/>
         <v>101</v>
       </c>
-      <c r="AO48" s="34">
+      <c r="AO48" s="26">
         <f t="shared" si="29"/>
         <v>37</v>
       </c>
-      <c r="AP48" s="34">
+      <c r="AP48" s="26">
         <f t="shared" si="30"/>
         <v>43</v>
       </c>
-      <c r="AQ48" s="34">
+      <c r="AQ48" s="26">
         <f t="shared" si="31"/>
         <v>53</v>
       </c>
-      <c r="AR48" s="34">
+      <c r="AR48" s="26">
         <f t="shared" si="32"/>
         <v>58</v>
       </c>
-      <c r="AS48" s="34">
+      <c r="AS48" s="26">
         <f t="shared" si="33"/>
         <v>63</v>
       </c>
-      <c r="AT48" s="34">
+      <c r="AT48" s="26">
         <f t="shared" si="34"/>
         <v>50.5</v>
       </c>
-      <c r="AU48" s="35" t="str">
+      <c r="AU48" s="27" t="str">
         <f t="shared" si="35"/>
         <v>D</v>
       </c>
-      <c r="AV48" s="35" t="str">
+      <c r="AV48" s="27" t="str">
         <f t="shared" si="36"/>
         <v>C2</v>
       </c>
-      <c r="AW48" s="35" t="str">
+      <c r="AW48" s="27" t="str">
         <f t="shared" si="37"/>
         <v>C1</v>
       </c>
-      <c r="AX48" s="35" t="str">
+      <c r="AX48" s="27" t="str">
         <f t="shared" si="38"/>
         <v>C1</v>
       </c>
-      <c r="AY48" s="35" t="str">
+      <c r="AY48" s="27" t="str">
         <f t="shared" si="39"/>
         <v>B2</v>
       </c>
-      <c r="AZ48" s="35" t="str">
+      <c r="AZ48" s="27" t="str">
         <f t="shared" si="40"/>
         <v>C1</v>
       </c>
-      <c r="BA48" s="36">
+      <c r="BA48" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -9708,13 +9711,13 @@
         <v>2533</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="F49" s="4">
         <v>7</v>
@@ -9723,31 +9726,31 @@
         <v>9760297815</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="I49" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="I49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="42" t="s">
+      <c r="J49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="42" t="s">
+      <c r="K49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L49" s="42" t="s">
+      <c r="L49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M49" s="42" t="s">
+      <c r="M49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="N49" s="42" t="s">
+      <c r="N49" s="34" t="s">
         <v>31</v>
       </c>
       <c r="O49" s="11">
         <v>10</v>
       </c>
-      <c r="P49" s="7">
-        <v>0</v>
+      <c r="P49" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q49" s="7">
         <v>32</v>
@@ -9779,105 +9782,105 @@
       <c r="Z49" s="8">
         <v>14</v>
       </c>
-      <c r="AA49" s="40">
+      <c r="AA49" s="32">
         <v>20</v>
       </c>
-      <c r="AB49" s="40">
+      <c r="AB49" s="32">
         <v>6</v>
       </c>
-      <c r="AC49" s="41">
+      <c r="AC49" s="33">
         <v>11</v>
       </c>
-      <c r="AD49" s="41">
+      <c r="AD49" s="33">
         <v>27</v>
       </c>
-      <c r="AE49" s="41">
+      <c r="AE49" s="33">
         <v>60</v>
       </c>
       <c r="AF49" s="5">
         <v>26</v>
       </c>
-      <c r="AG49" s="33">
+      <c r="AG49" s="25">
         <f t="shared" si="0"/>
         <v>414</v>
       </c>
-      <c r="AH49" s="33">
+      <c r="AH49" s="25">
         <f t="shared" si="4"/>
         <v>34.5</v>
       </c>
-      <c r="AI49" s="34">
+      <c r="AI49" s="26">
         <f t="shared" si="23"/>
         <v>44</v>
       </c>
-      <c r="AJ49" s="34">
+      <c r="AJ49" s="26">
         <f t="shared" si="24"/>
         <v>21</v>
       </c>
-      <c r="AK49" s="34">
+      <c r="AK49" s="26">
         <f t="shared" si="25"/>
         <v>56</v>
       </c>
-      <c r="AL49" s="34">
+      <c r="AL49" s="26">
         <f t="shared" si="26"/>
         <v>84</v>
       </c>
-      <c r="AM49" s="34">
+      <c r="AM49" s="26">
         <f t="shared" si="27"/>
         <v>126</v>
       </c>
-      <c r="AN49" s="34">
+      <c r="AN49" s="26">
         <f t="shared" si="28"/>
         <v>83</v>
       </c>
-      <c r="AO49" s="34">
+      <c r="AO49" s="26">
         <f t="shared" si="29"/>
         <v>22</v>
       </c>
-      <c r="AP49" s="34">
+      <c r="AP49" s="26">
         <f t="shared" si="30"/>
         <v>10.5</v>
       </c>
-      <c r="AQ49" s="34">
+      <c r="AQ49" s="26">
         <f t="shared" si="31"/>
         <v>28</v>
       </c>
-      <c r="AR49" s="34">
+      <c r="AR49" s="26">
         <f t="shared" si="32"/>
         <v>42</v>
       </c>
-      <c r="AS49" s="34">
+      <c r="AS49" s="26">
         <f t="shared" si="33"/>
         <v>63</v>
       </c>
-      <c r="AT49" s="34">
+      <c r="AT49" s="26">
         <f t="shared" si="34"/>
         <v>41.5</v>
       </c>
-      <c r="AU49" s="35" t="str">
+      <c r="AU49" s="27" t="str">
         <f t="shared" si="35"/>
         <v>E</v>
       </c>
-      <c r="AV49" s="35" t="str">
+      <c r="AV49" s="27" t="str">
         <f t="shared" si="36"/>
         <v>E</v>
       </c>
-      <c r="AW49" s="35" t="str">
+      <c r="AW49" s="27" t="str">
         <f t="shared" si="37"/>
         <v>E</v>
       </c>
-      <c r="AX49" s="35" t="str">
+      <c r="AX49" s="27" t="str">
         <f t="shared" si="38"/>
         <v>C2</v>
       </c>
-      <c r="AY49" s="35" t="str">
+      <c r="AY49" s="27" t="str">
         <f t="shared" si="39"/>
         <v>B2</v>
       </c>
-      <c r="AZ49" s="35" t="str">
+      <c r="AZ49" s="27" t="str">
         <f t="shared" si="40"/>
         <v>C2</v>
       </c>
-      <c r="BA49" s="36">
+      <c r="BA49" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -9889,13 +9892,13 @@
         <v>2740</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="F50" s="4">
         <v>7</v>
@@ -9904,7 +9907,7 @@
         <v>9927415451</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I50" s="7">
         <v>18</v>
@@ -9960,105 +9963,105 @@
       <c r="Z50" s="8">
         <v>19</v>
       </c>
-      <c r="AA50" s="40">
+      <c r="AA50" s="32">
         <v>45</v>
       </c>
-      <c r="AB50" s="40">
+      <c r="AB50" s="32">
         <v>31</v>
       </c>
-      <c r="AC50" s="41">
+      <c r="AC50" s="33">
         <v>12</v>
       </c>
-      <c r="AD50" s="41">
+      <c r="AD50" s="33">
         <v>27</v>
       </c>
-      <c r="AE50" s="41">
+      <c r="AE50" s="33">
         <v>57</v>
       </c>
       <c r="AF50" s="5">
         <v>39</v>
       </c>
-      <c r="AG50" s="33">
+      <c r="AG50" s="25">
         <f t="shared" si="0"/>
         <v>709</v>
       </c>
-      <c r="AH50" s="33">
+      <c r="AH50" s="25">
         <f t="shared" si="4"/>
         <v>59.1</v>
       </c>
-      <c r="AI50" s="34">
+      <c r="AI50" s="26">
         <f t="shared" si="23"/>
         <v>119</v>
       </c>
-      <c r="AJ50" s="34">
+      <c r="AJ50" s="26">
         <f t="shared" si="24"/>
         <v>88</v>
       </c>
-      <c r="AK50" s="34">
+      <c r="AK50" s="26">
         <f t="shared" si="25"/>
         <v>104</v>
       </c>
-      <c r="AL50" s="34">
+      <c r="AL50" s="26">
         <f t="shared" si="26"/>
         <v>123</v>
       </c>
-      <c r="AM50" s="34">
+      <c r="AM50" s="26">
         <f t="shared" si="27"/>
         <v>153</v>
       </c>
-      <c r="AN50" s="34">
+      <c r="AN50" s="26">
         <f t="shared" si="28"/>
         <v>122</v>
       </c>
-      <c r="AO50" s="34">
+      <c r="AO50" s="26">
         <f t="shared" si="29"/>
         <v>59.5</v>
       </c>
-      <c r="AP50" s="34">
+      <c r="AP50" s="26">
         <f t="shared" si="30"/>
         <v>44</v>
       </c>
-      <c r="AQ50" s="34">
+      <c r="AQ50" s="26">
         <f t="shared" si="31"/>
         <v>52</v>
       </c>
-      <c r="AR50" s="34">
+      <c r="AR50" s="26">
         <f t="shared" si="32"/>
         <v>61.5</v>
       </c>
-      <c r="AS50" s="34">
+      <c r="AS50" s="26">
         <f t="shared" si="33"/>
         <v>76.5</v>
       </c>
-      <c r="AT50" s="34">
+      <c r="AT50" s="26">
         <f t="shared" si="34"/>
         <v>61</v>
       </c>
-      <c r="AU50" s="35" t="str">
+      <c r="AU50" s="27" t="str">
         <f t="shared" si="35"/>
         <v>C1</v>
       </c>
-      <c r="AV50" s="35" t="str">
+      <c r="AV50" s="27" t="str">
         <f t="shared" si="36"/>
         <v>C2</v>
       </c>
-      <c r="AW50" s="35" t="str">
+      <c r="AW50" s="27" t="str">
         <f t="shared" si="37"/>
         <v>C1</v>
       </c>
-      <c r="AX50" s="35" t="str">
+      <c r="AX50" s="27" t="str">
         <f t="shared" si="38"/>
         <v>B2</v>
       </c>
-      <c r="AY50" s="35" t="str">
+      <c r="AY50" s="27" t="str">
         <f t="shared" si="39"/>
         <v>B1</v>
       </c>
-      <c r="AZ50" s="35" t="str">
+      <c r="AZ50" s="27" t="str">
         <f t="shared" si="40"/>
         <v>B2</v>
       </c>
-      <c r="BA50" s="36">
+      <c r="BA50" s="28">
         <v>1200</v>
       </c>
     </row>
@@ -10070,10 +10073,10 @@
         <v>2215</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>55</v>
@@ -10085,7 +10088,7 @@
         <v>9837900638</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I51" s="7">
         <v>18</v>
@@ -10141,105 +10144,105 @@
       <c r="Z51" s="8">
         <v>17</v>
       </c>
-      <c r="AA51" s="40">
+      <c r="AA51" s="32">
         <v>29</v>
       </c>
-      <c r="AB51" s="40">
+      <c r="AB51" s="32">
         <v>32</v>
       </c>
-      <c r="AC51" s="41">
-        <v>18</v>
-      </c>
-      <c r="AD51" s="41">
+      <c r="AC51" s="33">
+        <v>18</v>
+      </c>
+      <c r="AD51" s="33">
         <v>27</v>
       </c>
-      <c r="AE51" s="41">
+      <c r="AE51" s="33">
         <v>51</v>
       </c>
       <c r="AF51" s="5">
         <v>21</v>
       </c>
-      <c r="AG51" s="33">
+      <c r="AG51" s="25">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="AH51" s="33">
+      <c r="AH51" s="25">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="AI51" s="34">
+      <c r="AI51" s="26">
         <f t="shared" si="23"/>
         <v>100</v>
       </c>
-      <c r="AJ51" s="34">
+      <c r="AJ51" s="26">
         <f t="shared" si="24"/>
         <v>86</v>
       </c>
-      <c r="AK51" s="34">
+      <c r="AK51" s="26">
         <f t="shared" si="25"/>
         <v>103</v>
       </c>
-      <c r="AL51" s="34">
+      <c r="AL51" s="26">
         <f t="shared" si="26"/>
         <v>104</v>
       </c>
-      <c r="AM51" s="34">
+      <c r="AM51" s="26">
         <f t="shared" si="27"/>
         <v>122</v>
       </c>
-      <c r="AN51" s="34">
+      <c r="AN51" s="26">
         <f t="shared" si="28"/>
         <v>85</v>
       </c>
-      <c r="AO51" s="34">
+      <c r="AO51" s="26">
         <f t="shared" si="29"/>
         <v>50</v>
       </c>
-      <c r="AP51" s="34">
+      <c r="AP51" s="26">
         <f t="shared" si="30"/>
         <v>43</v>
       </c>
-      <c r="AQ51" s="34">
+      <c r="AQ51" s="26">
         <f t="shared" si="31"/>
         <v>51.5</v>
       </c>
-      <c r="AR51" s="34">
+      <c r="AR51" s="26">
         <f t="shared" si="32"/>
         <v>52</v>
       </c>
-      <c r="AS51" s="34">
+      <c r="AS51" s="26">
         <f t="shared" si="33"/>
         <v>61</v>
       </c>
-      <c r="AT51" s="34">
+      <c r="AT51" s="26">
         <f t="shared" si="34"/>
         <v>42.5</v>
       </c>
-      <c r="AU51" s="35" t="str">
+      <c r="AU51" s="27" t="str">
         <f t="shared" si="35"/>
         <v>C2</v>
       </c>
-      <c r="AV51" s="35" t="str">
+      <c r="AV51" s="27" t="str">
         <f t="shared" si="36"/>
         <v>C2</v>
       </c>
-      <c r="AW51" s="35" t="str">
+      <c r="AW51" s="27" t="str">
         <f t="shared" si="37"/>
         <v>C1</v>
       </c>
-      <c r="AX51" s="35" t="str">
+      <c r="AX51" s="27" t="str">
         <f t="shared" si="38"/>
         <v>C1</v>
       </c>
-      <c r="AY51" s="35" t="str">
+      <c r="AY51" s="27" t="str">
         <f t="shared" si="39"/>
         <v>B2</v>
       </c>
-      <c r="AZ51" s="35" t="str">
+      <c r="AZ51" s="27" t="str">
         <f t="shared" si="40"/>
         <v>C2</v>
       </c>
-      <c r="BA51" s="36">
+      <c r="BA51" s="28">
         <v>1200</v>
       </c>
     </row>
